--- a/data/hotels_by_city/Houston/Houston_shard_543.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_543.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223176-Reviews-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-North.h663553.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1383 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r579474286-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223176</t>
+  </si>
+  <si>
+    <t>579474286</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>The worst Residence Inn experience to date...</t>
+  </si>
+  <si>
+    <t>This place is dated, old and not particularly clean. Only stayed here, because United messed up my flights again. The property is nowhere near anything useful. Fortunately, there is a shuttle that can take you places and to the airport (hence 2/5).Breakfast was horrible and not up to Residence Inn standards. Staff were friendly, yet not particularly well trained. The "fitness room" is a closet with 3 treadmills. Fortunately, the shuttle will take you to a gym nearby.I say stay away. There are many more good hotels in the area for a similar price. Big mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Diana F, Manager at Residence Inn Houston North, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>This place is dated, old and not particularly clean. Only stayed here, because United messed up my flights again. The property is nowhere near anything useful. Fortunately, there is a shuttle that can take you places and to the airport (hence 2/5).Breakfast was horrible and not up to Residence Inn standards. Staff were friendly, yet not particularly well trained. The "fitness room" is a closet with 3 treadmills. Fortunately, the shuttle will take you to a gym nearby.I say stay away. There are many more good hotels in the area for a similar price. Big mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r579462488-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579462488</t>
+  </si>
+  <si>
+    <t>Great home away from home</t>
+  </si>
+  <si>
+    <t>I have recently revisited this hotel after not not being in town for 7 years. great service from all the staff, very friendly and welcoming.Hotel has all you need and is perfect set up for longer stays, fridge freezer, kitchen hob, oven microwave and dishwasher.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have recently revisited this hotel after not not being in town for 7 years. great service from all the staff, very friendly and welcoming.Hotel has all you need and is perfect set up for longer stays, fridge freezer, kitchen hob, oven microwave and dishwasher.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r578705335-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578705335</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Check-In Experience</t>
+  </si>
+  <si>
+    <t>The front desk employee named Jasmine didn’t give me the correct information for the shuttle service and when i came back down in the morning to ask her again she said she couldn’t help me. I had to pay for a taxi to get to the airport because of the wrong information she gave me.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk employee named Jasmine didn’t give me the correct information for the shuttle service and when i came back down in the morning to ask her again she said she couldn’t help me. I had to pay for a taxi to get to the airport because of the wrong information she gave me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r557664271-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557664271</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Not revived, refreshed, nor reenergized.</t>
+  </si>
+  <si>
+    <t>Not revived, refreshed, nor reenergized.
+Phone alarm in adjacent room went off at 12am, and didn't get shut off. Left the room to confirm the source of the disturbance - was pretty easy to confirm as the alarm was audible even in the hallway. 
+Called front desk to ask them to knock on room XXX and turn off their alarm. Heard front desk call the adjacent room... then front desk called me back at 1215AM to let me know the particulars - that it's a phone alarm, not a room alarm, and that the guest doesn't know how to deactivate the alarm. I've got a 9 and 2 year old trying to sleep, and found this additional disturbance completely unnecessary. Instead of handling the problem, the agent is waking up my kids to apologize and provide a status. 
+1230AM and the alarm is still ringing. My family and I have an international flight at 9am, 3 of us are awake and cannot sleep. I called the front desk again to offer suggestions. They explained that the guest picked up the phone to explain that it's their phone alarm, but is no longer picking up the phone, nor answering the security team's door knocks. The agent offered me a room change... which would also wake my 2 year old... which is unacceptable. I proposed having the security team open the door in case the guest needs legitimate help: perhaps they picked...Not revived, refreshed, nor reenergized.Phone alarm in adjacent room went off at 12am, and didn't get shut off. Left the room to confirm the source of the disturbance - was pretty easy to confirm as the alarm was audible even in the hallway. Called front desk to ask them to knock on room XXX and turn off their alarm. Heard front desk call the adjacent room... then front desk called me back at 1215AM to let me know the particulars - that it's a phone alarm, not a room alarm, and that the guest doesn't know how to deactivate the alarm. I've got a 9 and 2 year old trying to sleep, and found this additional disturbance completely unnecessary. Instead of handling the problem, the agent is waking up my kids to apologize and provide a status. 1230AM and the alarm is still ringing. My family and I have an international flight at 9am, 3 of us are awake and cannot sleep. I called the front desk again to offer suggestions. They explained that the guest picked up the phone to explain that it's their phone alarm, but is no longer picking up the phone, nor answering the security team's door knocks. The agent offered me a room change... which would also wake my 2 year old... which is unacceptable. I proposed having the security team open the door in case the guest needs legitimate help: perhaps they picked up the phone when they could, but perhaps now are unable. There may be precedent for opening a door in this scenario. In addition to avoiding possible liability, it would definitely help me and my family sleep, as well as all the other adjacent guests. The agent said she was sorry, but other than a room change, there's nothing she could do. 1245AM As I begin to write this email, I called customer service at headquarters at 800 721 7033, they said the best they can do is email the GM so that he can address the issue in the morning. Meanwhile, my wife went downstairs to speak to the agent in person. The agent called the adjacent room again, and someone picked up! This time, the guest asked not to be disturbed anymore... 1250AM We called the police, and are now waiting for them to resolve what should have been a quiet, restful, pre-international flight, relaxing evening at the Residence Inn, Marriott.Not sure how the Marriott CS team is going to help my family remedy this situation (time machines are in low supply and high demand). Perhaps this can serve as a great case study for future would-be customer service super heros... perhaps this would be a fun scenario question to pose Tony Hsieh... but long to short, we're not happy campers. And we'd like to be. Because monkeys wrench aside, the welcome was excellent and had held great promise.A prospective lifer, who'll probably advocate elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jake I, General Manager at Residence Inn Houston North, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Not revived, refreshed, nor reenergized.
+Phone alarm in adjacent room went off at 12am, and didn't get shut off. Left the room to confirm the source of the disturbance - was pretty easy to confirm as the alarm was audible even in the hallway. 
+Called front desk to ask them to knock on room XXX and turn off their alarm. Heard front desk call the adjacent room... then front desk called me back at 1215AM to let me know the particulars - that it's a phone alarm, not a room alarm, and that the guest doesn't know how to deactivate the alarm. I've got a 9 and 2 year old trying to sleep, and found this additional disturbance completely unnecessary. Instead of handling the problem, the agent is waking up my kids to apologize and provide a status. 
+1230AM and the alarm is still ringing. My family and I have an international flight at 9am, 3 of us are awake and cannot sleep. I called the front desk again to offer suggestions. They explained that the guest picked up the phone to explain that it's their phone alarm, but is no longer picking up the phone, nor answering the security team's door knocks. The agent offered me a room change... which would also wake my 2 year old... which is unacceptable. I proposed having the security team open the door in case the guest needs legitimate help: perhaps they picked...Not revived, refreshed, nor reenergized.Phone alarm in adjacent room went off at 12am, and didn't get shut off. Left the room to confirm the source of the disturbance - was pretty easy to confirm as the alarm was audible even in the hallway. Called front desk to ask them to knock on room XXX and turn off their alarm. Heard front desk call the adjacent room... then front desk called me back at 1215AM to let me know the particulars - that it's a phone alarm, not a room alarm, and that the guest doesn't know how to deactivate the alarm. I've got a 9 and 2 year old trying to sleep, and found this additional disturbance completely unnecessary. Instead of handling the problem, the agent is waking up my kids to apologize and provide a status. 1230AM and the alarm is still ringing. My family and I have an international flight at 9am, 3 of us are awake and cannot sleep. I called the front desk again to offer suggestions. They explained that the guest picked up the phone to explain that it's their phone alarm, but is no longer picking up the phone, nor answering the security team's door knocks. The agent offered me a room change... which would also wake my 2 year old... which is unacceptable. I proposed having the security team open the door in case the guest needs legitimate help: perhaps they picked up the phone when they could, but perhaps now are unable. There may be precedent for opening a door in this scenario. In addition to avoiding possible liability, it would definitely help me and my family sleep, as well as all the other adjacent guests. The agent said she was sorry, but other than a room change, there's nothing she could do. 1245AM As I begin to write this email, I called customer service at headquarters at 800 721 7033, they said the best they can do is email the GM so that he can address the issue in the morning. Meanwhile, my wife went downstairs to speak to the agent in person. The agent called the adjacent room again, and someone picked up! This time, the guest asked not to be disturbed anymore... 1250AM We called the police, and are now waiting for them to resolve what should have been a quiet, restful, pre-international flight, relaxing evening at the Residence Inn, Marriott.Not sure how the Marriott CS team is going to help my family remedy this situation (time machines are in low supply and high demand). Perhaps this can serve as a great case study for future would-be customer service super heros... perhaps this would be a fun scenario question to pose Tony Hsieh... but long to short, we're not happy campers. And we'd like to be. Because monkeys wrench aside, the welcome was excellent and had held great promise.A prospective lifer, who'll probably advocate elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r549345945-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549345945</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Really content with the customer service. Hot breakfast included every morning was very delicious. I would definitely recommend this place. Also very friendly staff always smiling and greeting when you pass by. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Really content with the customer service. Hot breakfast included every morning was very delicious. I would definitely recommend this place. Also very friendly staff always smiling and greeting when you pass by. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r546509178-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546509178</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Disappointment began the day of arrival, when my request for 1:00 pm early check-in was ignored.  I did receive a phone call asking if I was still checking in, but was never informed the room wouldn't be ready until nearly 3:00 pm.  I spent nearly an hour in the lobby waiting for my room to be cleaned.Next disappointment came that evening, when I sat on the bed, and the mattress sank 3 inches.  And like the bed, the sofa also felt as if it had been used by children jumping up and down as on a trampoline.Maintenance:  How can a housekeeper ignore the fact that a kitchen faucet pulls up out of the counter when the handle is lifted to turn on the water?   The faucet was fixed a few days after I reported the matter to the front desk, but the guest should arrive to a room that has no maintenance issues.Breakfast and evening social:  The evening social and weekend breakfast are staffed by members of railroads in developing countries, and are just as timely.  And the scrambled eggs were always rubbery.Pro:  The hotel location offers easy access to the Sam Houston Tollway, and also offers easy access to downtown via the Hardy Toll Road.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Jake I, General Manager at Residence Inn Houston North, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Disappointment began the day of arrival, when my request for 1:00 pm early check-in was ignored.  I did receive a phone call asking if I was still checking in, but was never informed the room wouldn't be ready until nearly 3:00 pm.  I spent nearly an hour in the lobby waiting for my room to be cleaned.Next disappointment came that evening, when I sat on the bed, and the mattress sank 3 inches.  And like the bed, the sofa also felt as if it had been used by children jumping up and down as on a trampoline.Maintenance:  How can a housekeeper ignore the fact that a kitchen faucet pulls up out of the counter when the handle is lifted to turn on the water?   The faucet was fixed a few days after I reported the matter to the front desk, but the guest should arrive to a room that has no maintenance issues.Breakfast and evening social:  The evening social and weekend breakfast are staffed by members of railroads in developing countries, and are just as timely.  And the scrambled eggs were always rubbery.Pro:  The hotel location offers easy access to the Sam Houston Tollway, and also offers easy access to downtown via the Hardy Toll Road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r531710420-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531710420</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Rude front desk person and sales manager</t>
+  </si>
+  <si>
+    <t>This property does not deserve your time. We booked with not knowing when we would be checking out, After 10 days the front desk person stated that we checkout after just 10 days. She was rude and tried to make us feel guilty about needing to stay. I called the sales directer and he proceeded to lie to me about our reservation not ever saying sorry for the misunderstanding. I will be moving to another property for the balance of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Diana F, Assistant General Manager at Residence Inn Houston North, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>This property does not deserve your time. We booked with not knowing when we would be checking out, After 10 days the front desk person stated that we checkout after just 10 days. She was rude and tried to make us feel guilty about needing to stay. I called the sales directer and he proceeded to lie to me about our reservation not ever saying sorry for the misunderstanding. I will be moving to another property for the balance of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r530785136-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530785136</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great employees </t>
+  </si>
+  <si>
+    <t>The staff is the best I've experienced at any Marriott property I've been to and I've had quite a few stays. Nygia was awesome, very professional and  helpful .Hank went above and beyond to make sure we were comfortable and pleased. And the sales person Brandon made sure my family was at its best, listened to my every concern and was able to assist in every way.  Big ups to this location.  These employees should definitely be recognized for their service, courteousness and professionalism.  Only thing i would change is decor is a bit dated but they have no control over that.  But keep up the good work guysMoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>The staff is the best I've experienced at any Marriott property I've been to and I've had quite a few stays. Nygia was awesome, very professional and  helpful .Hank went above and beyond to make sure we were comfortable and pleased. And the sales person Brandon made sure my family was at its best, listened to my every concern and was able to assist in every way.  Big ups to this location.  These employees should definitely be recognized for their service, courteousness and professionalism.  Only thing i would change is decor is a bit dated but they have no control over that.  But keep up the good work guysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r519051131-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519051131</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey Victim Great Experience Here!</t>
+  </si>
+  <si>
+    <t>My family got caught in Hurricane Harvey in Houston TX, one of the worst storms in history.  We ended up at this Hotel where it became a home away from home.  The ladies at the front desk Starr, Jada, and Diana were extremely helpful despite being inundated with flood victims.  They kept hot food and clean towels and linens available for us whenever we needed them, and really provided a place of comfort as many of us lost our homes.  If you are ever travelling through or to Houston I highly recommend this Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>My family got caught in Hurricane Harvey in Houston TX, one of the worst storms in history.  We ended up at this Hotel where it became a home away from home.  The ladies at the front desk Starr, Jada, and Diana were extremely helpful despite being inundated with flood victims.  They kept hot food and clean towels and linens available for us whenever we needed them, and really provided a place of comfort as many of us lost our homes.  If you are ever travelling through or to Houston I highly recommend this Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r506637348-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506637348</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>A little disappointing for the price</t>
+  </si>
+  <si>
+    <t>We don't usually aim at hotels over $125 or so for over-nighting; but we thought we'd splurge a little after flying in at midnight, following our 2 weeks in Mexico. First, the good: the front-desk staff was as considerate and helpful as at any property we've ever stayed at. From the receptionist who helped book the night, to the shuttle driver who dropped everything to get us to IAH on time after our three-hour drive in traffic, to a DIFFERENT driver who picked us up after midnight on our return; everyone was friendly and helpful. The set-up for parking our car was easy and straightforward, as well.Unfortunately, the physical hotel itself is (as noted in other reviews) showing its wear. In addition, there were some lapses in cleanliness that surprised me, given the price of a single night's stay: trash in the hall next to our door when we checked in, a hair on the box of soap in the bathroom, pieces of trash in the floor drain of the bathroom.We stayed in 4 different properties on this trip - this was the most expensive on a per-night basis; yet was BY FAR, the most disappointing in regards to cleanliness and overall "niceness."If we'd wanted a Motel 6, we could've stayed at one.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>We don't usually aim at hotels over $125 or so for over-nighting; but we thought we'd splurge a little after flying in at midnight, following our 2 weeks in Mexico. First, the good: the front-desk staff was as considerate and helpful as at any property we've ever stayed at. From the receptionist who helped book the night, to the shuttle driver who dropped everything to get us to IAH on time after our three-hour drive in traffic, to a DIFFERENT driver who picked us up after midnight on our return; everyone was friendly and helpful. The set-up for parking our car was easy and straightforward, as well.Unfortunately, the physical hotel itself is (as noted in other reviews) showing its wear. In addition, there were some lapses in cleanliness that surprised me, given the price of a single night's stay: trash in the hall next to our door when we checked in, a hair on the box of soap in the bathroom, pieces of trash in the floor drain of the bathroom.We stayed in 4 different properties on this trip - this was the most expensive on a per-night basis; yet was BY FAR, the most disappointing in regards to cleanliness and overall "niceness."If we'd wanted a Motel 6, we could've stayed at one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r500977257-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500977257</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Close to Iah airport , shuttle and front desk staffing are awsome so nice , breakfast was really good , food,pastries coffee etc. No restaurants nearsby but hotel next. Door has a good bistro !!' Will come back! MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Close to Iah airport , shuttle and front desk staffing are awsome so nice , breakfast was really good , food,pastries coffee etc. No restaurants nearsby but hotel next. Door has a good bistro !!' Will come back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r490501304-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490501304</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid if possible, shuttle/front desk is clueless </t>
+  </si>
+  <si>
+    <t>Terrible service we got stuck in Houston due to weather. Called residence Inn and waited more than an hour for the shuttle after we were told 20 minutes by Mauricio.  Everytime he said 10 more minutes.  Advice to management: don't promise what you can't provideMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Terrible service we got stuck in Houston due to weather. Called residence Inn and waited more than an hour for the shuttle after we were told 20 minutes by Mauricio.  Everytime he said 10 more minutes.  Advice to management: don't promise what you can't provideMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r475818522-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475818522</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Our room smells like fries!!</t>
+  </si>
+  <si>
+    <t>We stayed here last night on our way to Galveston for a cruise. We selected this hotel because of its close proximity to the airport, free airport shuttle, the two bedroom suite option, and the 24-hour pool. When we arrived in Houston the shuttle was quick to come, about 20 minutes. A quick drive to the hotel. Check in was painless.  The hotel seems old and beginning to show signs of age and wear.  The rooms are clean-ish, but smell like old cooking. Clean linens on old beds. Nice TVs. Lots of street and airport background noise.  We were told that the pool was closed, so not 24-hours after all, which was disappointing after a long day of travel with our kids. The breakfast was nice. Lots to choose from.  The pool area is dirty. The water in the pool is rimmed with a layer of hair and scum. I stepped on a toenail on the deck. It's a small pool that would only require a small amount of daily attention to ensure it's clean and sparkling, but it is clearly neglected.  The ventilation fan makes ab workout ear splitting noise in the pool room so even to sit and watch the kids swim in the swamp isn't enjoyable. This hotel is overall ok, but because of the disappointing little details and so many other hotel options in the area, I probably wouldn't return. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here last night on our way to Galveston for a cruise. We selected this hotel because of its close proximity to the airport, free airport shuttle, the two bedroom suite option, and the 24-hour pool. When we arrived in Houston the shuttle was quick to come, about 20 minutes. A quick drive to the hotel. Check in was painless.  The hotel seems old and beginning to show signs of age and wear.  The rooms are clean-ish, but smell like old cooking. Clean linens on old beds. Nice TVs. Lots of street and airport background noise.  We were told that the pool was closed, so not 24-hours after all, which was disappointing after a long day of travel with our kids. The breakfast was nice. Lots to choose from.  The pool area is dirty. The water in the pool is rimmed with a layer of hair and scum. I stepped on a toenail on the deck. It's a small pool that would only require a small amount of daily attention to ensure it's clean and sparkling, but it is clearly neglected.  The ventilation fan makes ab workout ear splitting noise in the pool room so even to sit and watch the kids swim in the swamp isn't enjoyable. This hotel is overall ok, but because of the disappointing little details and so many other hotel options in the area, I probably wouldn't return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r471740027-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471740027</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Perfect airport hotel for business</t>
+  </si>
+  <si>
+    <t>I recently stayed here for two nights for business.  Location wise it's about 10 minutes via free shuttle that the hotel provides.  The hotel is in an area that there isn't much around.  Despite this I still give it full marks and here is why.  Service!!!  The hotel has a second shuttle (the local shuttle) that will take you anywhere within a 5 mile radius.  This includes a bunch of different restaurants, a mall, movie theater, etc.  the staff is super helpful and I feel goes above and beyond in trying to make your stay perfect.  The room has a fully equipped kitchen and was nice to just relax in.  Bed is very comfortable.  Next time I have business in the same area this is where I will stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed here for two nights for business.  Location wise it's about 10 minutes via free shuttle that the hotel provides.  The hotel is in an area that there isn't much around.  Despite this I still give it full marks and here is why.  Service!!!  The hotel has a second shuttle (the local shuttle) that will take you anywhere within a 5 mile radius.  This includes a bunch of different restaurants, a mall, movie theater, etc.  the staff is super helpful and I feel goes above and beyond in trying to make your stay perfect.  The room has a fully equipped kitchen and was nice to just relax in.  Bed is very comfortable.  Next time I have business in the same area this is where I will stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r468170970-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468170970</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Premier Marriott member disappointed</t>
+  </si>
+  <si>
+    <t>Note to management: train your cleaning staff and maintenance. The list is long and I really wouldn't know where to begin. I have never written a review on Trip Advisor and actually just signed up to leave one just for this Marriott. We won't be returning, you are giving the Marriott chain a bad name.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Note to management: train your cleaning staff and maintenance. The list is long and I really wouldn't know where to begin. I have never written a review on Trip Advisor and actually just signed up to leave one just for this Marriott. We won't be returning, you are giving the Marriott chain a bad name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r425771391-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425771391</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent Airport Hotel </t>
+  </si>
+  <si>
+    <t>Nice staff and spacious rooms.  I was disappointed that the ice maker in my room didn't work and they don't have any public ice makers.  There was also a bit of commotion on my floor around 4 am but seems like it was an isolated incident.There is an airport shuttle.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Cynthia M, Manager at Residence Inn Houston North, responded to this reviewResponded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Nice staff and spacious rooms.  I was disappointed that the ice maker in my room didn't work and they don't have any public ice makers.  There was also a bit of commotion on my floor around 4 am but seems like it was an isolated incident.There is an airport shuttle.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r422658007-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422658007</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Ms Stone</t>
+  </si>
+  <si>
+    <t>The staff goes the extra mile to make customers feel comfortable and well cared for and they are so genuine. I have been here for one month and really feel at home with the staff.  From the girls out front Cynthia in the AM and Sandra in the PM, to Jeremy and Elvia, they are always sincere and courteous.  The cleaning staff adds little touches that I appreciate.  That is rare to have that many  staff to be so sweet and kind.  When I first arrived, I was recuperating from a broken ankle. They gave me ice every night to ice down my swollen ankle. Thank you ALL for making this one of my best business trips!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Cynthia M, Manager at Residence Inn Houston North, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>The staff goes the extra mile to make customers feel comfortable and well cared for and they are so genuine. I have been here for one month and really feel at home with the staff.  From the girls out front Cynthia in the AM and Sandra in the PM, to Jeremy and Elvia, they are always sincere and courteous.  The cleaning staff adds little touches that I appreciate.  That is rare to have that many  staff to be so sweet and kind.  When I first arrived, I was recuperating from a broken ankle. They gave me ice every night to ice down my swollen ankle. Thank you ALL for making this one of my best business trips!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r422032609-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422032609</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Massive rooms. Super clean. The staff is kind. The location is right off the highway.  There are a few nearby places to eat. The breakfast is good and beds are cozy. I will stay here again. The rooms have a full kitchen which is very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Massive rooms. Super clean. The staff is kind. The location is right off the highway.  There are a few nearby places to eat. The breakfast is good and beds are cozy. I will stay here again. The rooms have a full kitchen which is very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r381417485-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381417485</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>We had stayed a night with half of my girl scout troop. We arrived early, and the staff was welcoming and accommodated us in. The young lady who tended to us let us know about the services they had. The over night person was quick to help us when we needed extra pillows and sheets. Omg the cleaning ladies are lovely and greet you with a smile. This isn't my first time there. But every time I'm there I feel very comfortable. We will be going back soonMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2016</t>
+  </si>
+  <si>
+    <t>We had stayed a night with half of my girl scout troop. We arrived early, and the staff was welcoming and accommodated us in. The young lady who tended to us let us know about the services they had. The over night person was quick to help us when we needed extra pillows and sheets. Omg the cleaning ladies are lovely and greet you with a smile. This isn't my first time there. But every time I'm there I feel very comfortable. We will be going back soonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r380992199-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380992199</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Average inn</t>
+  </si>
+  <si>
+    <t>Average Residence Inn. Rooms were clean and smelled clean.  Did request extra pillows when made reservation. Did not receive. The beds were super soft. The big positive was the shuttle driver did take us to a restaurant we wanted to eat at. It was out the regular area, but he was more than happy to get us there and pick us up.MoreShow less</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Average Residence Inn. Rooms were clean and smelled clean.  Did request extra pillows when made reservation. Did not receive. The beds were super soft. The big positive was the shuttle driver did take us to a restaurant we wanted to eat at. It was out the regular area, but he was more than happy to get us there and pick us up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r380830572-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380830572</t>
+  </si>
+  <si>
+    <t>Awesome Staff and Great Accomodations</t>
+  </si>
+  <si>
+    <t>I often stay here for business, but even an overnight guest will enjoy the benefits of staying here. Approximately 10 - 15 minutes from IAH, and usually advertised for $89/night. The hotel van will take you within a 5 mile radius to hotels and shopping. The staff here is absolutely the best attribute of the hotel. I feel like family while I am here. The rooms are well maintained and spacious. Breakfast is served daily, and light dinners on Mondays and Tuesdays.MoreShow less</t>
+  </si>
+  <si>
+    <t>I often stay here for business, but even an overnight guest will enjoy the benefits of staying here. Approximately 10 - 15 minutes from IAH, and usually advertised for $89/night. The hotel van will take you within a 5 mile radius to hotels and shopping. The staff here is absolutely the best attribute of the hotel. I feel like family while I am here. The rooms are well maintained and spacious. Breakfast is served daily, and light dinners on Mondays and Tuesdays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r361885979-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361885979</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Loacation fine thuogh a bit noisy</t>
+  </si>
+  <si>
+    <t>RI Houston Airport has a good location if you have an early flight out as it is only ten minutes from the airport. To downtown it will take you at least half an hour (do not even try during rush hours) so if you plan to spend much time there forget this hotel. Judging on the furniture and the rooms this one is in need of a refurbishment because although the place is clean, it does look somewhat tired. Breakfast is great and you can get real plates and silverware. Overall quite happy with the exception of the bed which definitely needs replacement.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>RI Houston Airport has a good location if you have an early flight out as it is only ten minutes from the airport. To downtown it will take you at least half an hour (do not even try during rush hours) so if you plan to spend much time there forget this hotel. Judging on the furniture and the rooms this one is in need of a refurbishment because although the place is clean, it does look somewhat tired. Breakfast is great and you can get real plates and silverware. Overall quite happy with the exception of the bed which definitely needs replacement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r354569177-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354569177</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly, Clean Environment</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was extremely friendly/helpful/Always smiling! Room was great,bed was comfortable,none of those flat pillows your used to!! Room came w/ complete kitchen from pots to cups, spoons, forks, etc.Each night they have a "social" which was really nice. This was a great trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was extremely friendly/helpful/Always smiling! Room was great,bed was comfortable,none of those flat pillows your used to!! Room came w/ complete kitchen from pots to cups, spoons, forks, etc.Each night they have a "social" which was really nice. This was a great trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r352182231-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352182231</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Good hotel, but needs an update.</t>
+  </si>
+  <si>
+    <t>We enjoy the Residence Inn brand and this was no exception.  The rooms are comfortable and the staff was extremely friendly.  In particular, General Manager Ms. Trammell and also the breakfast server Maria went out of their way.  Location was convenient for us, although there were few restaurants close by.  While the rooms were very clean, including a spotless bathroom, the hotel would benefit from an update.  The appliances were clean but very scuffed and scratched.  Carpet in the halls and stairs were threadbare.  We'll be back, but hope to see some updates.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded March 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2016</t>
+  </si>
+  <si>
+    <t>We enjoy the Residence Inn brand and this was no exception.  The rooms are comfortable and the staff was extremely friendly.  In particular, General Manager Ms. Trammell and also the breakfast server Maria went out of their way.  Location was convenient for us, although there were few restaurants close by.  While the rooms were very clean, including a spotless bathroom, the hotel would benefit from an update.  The appliances were clean but very scuffed and scratched.  Carpet in the halls and stairs were threadbare.  We'll be back, but hope to see some updates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r349977824-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349977824</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The staff here was great, especially Sherman and Cynthia.  This hotel has a managers reception during the week and breakfast daily.  They also picked us up at the Car Rental Station on Saturday and took us back to the Airport on Sunday.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>The staff here was great, especially Sherman and Cynthia.  This hotel has a managers reception during the week and breakfast daily.  They also picked us up at the Car Rental Station on Saturday and took us back to the Airport on Sunday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r348999402-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348999402</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I can honestly say your entire staff was awesome while the girls were in Houston at the ECNL Soccer tournament.Rooms were refreshing, clean and the design was perfect.Front desk staff was professional, friendly, and great to all of us. It was a pleasure staying here at the Residence Inn at Greenspoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>I can honestly say your entire staff was awesome while the girls were in Houston at the ECNL Soccer tournament.Rooms were refreshing, clean and the design was perfect.Front desk staff was professional, friendly, and great to all of us. It was a pleasure staying here at the Residence Inn at Greenspoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r344809329-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344809329</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>EXTRAS...EXTRAS...EXTRAS.....DID I SAY EXTRAS!!!!</t>
+  </si>
+  <si>
+    <t>I have received alot of great deals through hotwire.com but this by far has been the BEST hotel experience Ive ever had (*not knowing where I would be staying until AFTER I paid lol). The rooms were nice and spacious (king), airport shuttle, indoor pool &amp; hot tub, workout room (really small). The breakfast was delicious every morning and they even have a happy hour in the evening with REAL dinner (tacos/nachos) and drinks (alcoholic &amp; non-alcoholic)--not sure if they have it everyday but it was Monday when we stayed there. The customer service was great...they had everything available at the counter (toothpaste, etc). We didnt have to leave the hotel, except for lunch!MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2016</t>
+  </si>
+  <si>
+    <t>I have received alot of great deals through hotwire.com but this by far has been the BEST hotel experience Ive ever had (*not knowing where I would be staying until AFTER I paid lol). The rooms were nice and spacious (king), airport shuttle, indoor pool &amp; hot tub, workout room (really small). The breakfast was delicious every morning and they even have a happy hour in the evening with REAL dinner (tacos/nachos) and drinks (alcoholic &amp; non-alcoholic)--not sure if they have it everyday but it was Monday when we stayed there. The customer service was great...they had everything available at the counter (toothpaste, etc). We didnt have to leave the hotel, except for lunch!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r306906343-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306906343</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>Room was very clean, although you could tell it was a bit worn.  The lobby area was very nice and more modern.The exercise room was super small and contained two treadmills and an elliptical.  I did not try out the indoor pool since I forgot my bathing suit.The staff was exceptionally nice and friendly.  I really think they made this an above average hotel.The breakfast was wonderful with a mix of healthy (non-sweetened cereals, boiled eggs) and more junky stuff (waffles, pork, eggs, pastries).  I spent three nights here and would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r306602121-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306602121</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel with Exceptional Staff</t>
+  </si>
+  <si>
+    <t>As a business traveler this Marriott Residence Inn was exceptional.  My room had a king sized bed suite (which is usually a queen in Residence Inn suites).  The room also had a full kitchen with a full sized refrigerator/freezer, microwave, sink, electric four-burner electric stove and dishwasher.  The air conditioner was efficient, the bed was very comfortable and the surroundings were quiet and peaceful. The room also had a sofa bed, 32-inch LG flat screen television and the other usual amenities found in these properties.  
+But what made this Marriott property exceptional was the guest support by the staff.  Upon checking in I was faced with a dilemma wherein some business associates residing in a nearby lodging facility found themselves utterly dissatisfied with their hotel.  I shared this problem with the lobby agent CARLA who earlier checked me in.  She managed to get me rooms at the Residence Inn for my associates.  She also coordinated with the hotel shuttle driver JEREMY who transported me to the location where my associates were stranded and brought us all back to the Residence Inn.  They both were truly great host and made my stay very confortable.  My associates, who were by the way official foreign delegates, were very impressed and conveyed to me their appreciation for their ability to check-in to the Residence Inn with no prior reservations.  They stated they felt welcomed and enjoyed their rooms immensely.  
+BUT WAIT THERE’S MORE…. On...As a business traveler this Marriott Residence Inn was exceptional.  My room had a king sized bed suite (which is usually a queen in Residence Inn suites).  The room also had a full kitchen with a full sized refrigerator/freezer, microwave, sink, electric four-burner electric stove and dishwasher.  The air conditioner was efficient, the bed was very comfortable and the surroundings were quiet and peaceful. The room also had a sofa bed, 32-inch LG flat screen television and the other usual amenities found in these properties.  But what made this Marriott property exceptional was the guest support by the staff.  Upon checking in I was faced with a dilemma wherein some business associates residing in a nearby lodging facility found themselves utterly dissatisfied with their hotel.  I shared this problem with the lobby agent CARLA who earlier checked me in.  She managed to get me rooms at the Residence Inn for my associates.  She also coordinated with the hotel shuttle driver JEREMY who transported me to the location where my associates were stranded and brought us all back to the Residence Inn.  They both were truly great host and made my stay very confortable.  My associates, who were by the way official foreign delegates, were very impressed and conveyed to me their appreciation for their ability to check-in to the Residence Inn with no prior reservations.  They stated they felt welcomed and enjoyed their rooms immensely.  BUT WAIT THERE’S MORE…. On one occasion during my stay, I was returning from an errand and while riding on the hotel shuttle, I realized I had forgotten my backpack, which contained my wallet, money and other crucial credentials and items.  The driver, JAYDA assured me that she could quickly turn back and get me to the location to determine if the backpack was still there.  I honestly did not hold out much hope while JAYDA drove back to the location.  Well, when I got back to the location, my backpack was right where I had left it!  JAYDA’s quick response and ability to navigate through heavy traffic was most certainly instrumental in me being able to recover my property in time.As a professional business traveler I favor Marriott properties and I am seldom disappointed.  This particular visit however was made extremely pleasant due to the professional, courteous and friendly service of CARLA, JEREMY and JAYDA at the Residence Inn at Houston Intercontinental Airport at Greenpoint.  I highly recommend this Marriott with enthusiasm.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a business traveler this Marriott Residence Inn was exceptional.  My room had a king sized bed suite (which is usually a queen in Residence Inn suites).  The room also had a full kitchen with a full sized refrigerator/freezer, microwave, sink, electric four-burner electric stove and dishwasher.  The air conditioner was efficient, the bed was very comfortable and the surroundings were quiet and peaceful. The room also had a sofa bed, 32-inch LG flat screen television and the other usual amenities found in these properties.  
+But what made this Marriott property exceptional was the guest support by the staff.  Upon checking in I was faced with a dilemma wherein some business associates residing in a nearby lodging facility found themselves utterly dissatisfied with their hotel.  I shared this problem with the lobby agent CARLA who earlier checked me in.  She managed to get me rooms at the Residence Inn for my associates.  She also coordinated with the hotel shuttle driver JEREMY who transported me to the location where my associates were stranded and brought us all back to the Residence Inn.  They both were truly great host and made my stay very confortable.  My associates, who were by the way official foreign delegates, were very impressed and conveyed to me their appreciation for their ability to check-in to the Residence Inn with no prior reservations.  They stated they felt welcomed and enjoyed their rooms immensely.  
+BUT WAIT THERE’S MORE…. On...As a business traveler this Marriott Residence Inn was exceptional.  My room had a king sized bed suite (which is usually a queen in Residence Inn suites).  The room also had a full kitchen with a full sized refrigerator/freezer, microwave, sink, electric four-burner electric stove and dishwasher.  The air conditioner was efficient, the bed was very comfortable and the surroundings were quiet and peaceful. The room also had a sofa bed, 32-inch LG flat screen television and the other usual amenities found in these properties.  But what made this Marriott property exceptional was the guest support by the staff.  Upon checking in I was faced with a dilemma wherein some business associates residing in a nearby lodging facility found themselves utterly dissatisfied with their hotel.  I shared this problem with the lobby agent CARLA who earlier checked me in.  She managed to get me rooms at the Residence Inn for my associates.  She also coordinated with the hotel shuttle driver JEREMY who transported me to the location where my associates were stranded and brought us all back to the Residence Inn.  They both were truly great host and made my stay very confortable.  My associates, who were by the way official foreign delegates, were very impressed and conveyed to me their appreciation for their ability to check-in to the Residence Inn with no prior reservations.  They stated they felt welcomed and enjoyed their rooms immensely.  BUT WAIT THERE’S MORE…. On one occasion during my stay, I was returning from an errand and while riding on the hotel shuttle, I realized I had forgotten my backpack, which contained my wallet, money and other crucial credentials and items.  The driver, JAYDA assured me that she could quickly turn back and get me to the location to determine if the backpack was still there.  I honestly did not hold out much hope while JAYDA drove back to the location.  Well, when I got back to the location, my backpack was right where I had left it!  JAYDA’s quick response and ability to navigate through heavy traffic was most certainly instrumental in me being able to recover my property in time.As a professional business traveler I favor Marriott properties and I am seldom disappointed.  This particular visit however was made extremely pleasant due to the professional, courteous and friendly service of CARLA, JEREMY and JAYDA at the Residence Inn at Houston Intercontinental Airport at Greenpoint.  I highly recommend this Marriott with enthusiasm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r306413408-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306413408</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Will not return</t>
+  </si>
+  <si>
+    <t>I'm in Houston for over a month on business and I only made it 2 nights here before switching to a different hotel. The rooms look and smell old and musty. All my dishes were dirty when I arrived and the outside of the windows were covered in old spiderwebs. There has been noise from various things early every morning (construction or something outside, housekeeping vacuuming the hallways, etc) and I have yet to get a good night's sleep. It's far enough away from the airport that I can't hear airplane noise, but it's also really far away from everything else. There is a Walmart about 10 minutes away but that's about it. Expect to drive a little bit for food, coffee, and everything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, Front Office Manager at Residence Inn Houston North, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>I'm in Houston for over a month on business and I only made it 2 nights here before switching to a different hotel. The rooms look and smell old and musty. All my dishes were dirty when I arrived and the outside of the windows were covered in old spiderwebs. There has been noise from various things early every morning (construction or something outside, housekeeping vacuuming the hallways, etc) and I have yet to get a good night's sleep. It's far enough away from the airport that I can't hear airplane noise, but it's also really far away from everything else. There is a Walmart about 10 minutes away but that's about it. Expect to drive a little bit for food, coffee, and everything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r278118772-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278118772</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Not a place I'd want to go back to</t>
+  </si>
+  <si>
+    <t>First, when we landed at IAH, we called the hotel to inquire about shuttle service.  The woman at the hotel said there was complimentary shuttle service, told us where to meet the van at ground level and the driver would be around in about 15 minutes.  We waited 90 minutes and no shuttle ever came.  During our wait, we telephoned the hotel 3 times and they kept saying the same thing...a driver was in route.Finally we gave up and paid the $30 for a taxi.  When we got to the hotel, we asked about shuttle service back to the airport the following morning as we had an early flight out.  The desk clerk asked us what time we wanted to depart and we said 7:30....he said fine, I'll put you on the list.  Turns out - their shuttles only leave at the top of the hour so there was no 7:30 shuttle.If that wasn't enough, the room was very noisy - could hear your neighbors sneeze and the pipes rattled everyt ime someone flushed a toilet or ran their shower.STAY AWAY from this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded June 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2015</t>
+  </si>
+  <si>
+    <t>First, when we landed at IAH, we called the hotel to inquire about shuttle service.  The woman at the hotel said there was complimentary shuttle service, told us where to meet the van at ground level and the driver would be around in about 15 minutes.  We waited 90 minutes and no shuttle ever came.  During our wait, we telephoned the hotel 3 times and they kept saying the same thing...a driver was in route.Finally we gave up and paid the $30 for a taxi.  When we got to the hotel, we asked about shuttle service back to the airport the following morning as we had an early flight out.  The desk clerk asked us what time we wanted to depart and we said 7:30....he said fine, I'll put you on the list.  Turns out - their shuttles only leave at the top of the hour so there was no 7:30 shuttle.If that wasn't enough, the room was very noisy - could hear your neighbors sneeze and the pipes rattled everyt ime someone flushed a toilet or ran their shower.STAY AWAY from this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r268003016-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268003016</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Good for a stopover</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and clean and the front desk team very helpful and friendly. One thing to be aware of is that it is not near anything. If you want meal and you're not cooking in your suite, then the only immediate thing available is the restaurant next door at the Courtyard Houston North, which does have a take out facility.I had an issue with the smoke detector alarm which needed a battery replacement as it kept beeping while I was trying to work. We eventually got it taken care off and the staff were most apologetic for the delay (what the delay was, I don't know, but they got it fixed. Phew!).Breakfast was ample and the morning staff were a delight. I wouldn't book this hotel for my vacation, but most people don't book airport hotels for extended vacation anyway. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>The hotel was quiet and clean and the front desk team very helpful and friendly. One thing to be aware of is that it is not near anything. If you want meal and you're not cooking in your suite, then the only immediate thing available is the restaurant next door at the Courtyard Houston North, which does have a take out facility.I had an issue with the smoke detector alarm which needed a battery replacement as it kept beeping while I was trying to work. We eventually got it taken care off and the staff were most apologetic for the delay (what the delay was, I don't know, but they got it fixed. Phew!).Breakfast was ample and the morning staff were a delight. I wouldn't book this hotel for my vacation, but most people don't book airport hotels for extended vacation anyway. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r267194378-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267194378</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Flight cancelled, spent one night</t>
+  </si>
+  <si>
+    <t>After a late night cancellation at IAH, I booked a night at this Residence Inn.  The rooms were spacious but a bit banged up and worn.  A few stains on the carpets and the shower was very dingy.  However....the staff was wonderful!.  Very friendly, pleasant and helpful.  They also booked a taxi ride for me for early the next morning.  I'd say the service definitely outweighed the worn room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>After a late night cancellation at IAH, I booked a night at this Residence Inn.  The rooms were spacious but a bit banged up and worn.  A few stains on the carpets and the shower was very dingy.  However....the staff was wonderful!.  Very friendly, pleasant and helpful.  They also booked a taxi ride for me for early the next morning.  I'd say the service definitely outweighed the worn room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r261645503-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261645503</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Great hotel in a not so great area</t>
+  </si>
+  <si>
+    <t>Spent about 20 days at this hotel after being transferred from Calgary to Houston. The rooms are spacious and clean and the staff was very helpful the entire time. Free hot breakfast is a plus. Not really within walking distance to any restaurants or shopping, and unfortunately the area is not one of the best in Houston. My vehicle was burglarized not once but twice during our stay. So if you leave something in your car, it means you don't want it. Not the fault of the hotel obviously, and they do have a security guard on duty on most nights, just not at the time I was victimized.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Spent about 20 days at this hotel after being transferred from Calgary to Houston. The rooms are spacious and clean and the staff was very helpful the entire time. Free hot breakfast is a plus. Not really within walking distance to any restaurants or shopping, and unfortunately the area is not one of the best in Houston. My vehicle was burglarized not once but twice during our stay. So if you leave something in your car, it means you don't want it. Not the fault of the hotel obviously, and they do have a security guard on duty on most nights, just not at the time I was victimized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r261449002-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261449002</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Hotel is located minutes from IAH and easy to get to.  Front desk staff is friendly and helpful.  Morning breakfast was excellent.  Pool is open 24 hrs a day.  Many restaurants nearby if needed. Easy to get downtownMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Hotel is located minutes from IAH and easy to get to.  Front desk staff is friendly and helpful.  Morning breakfast was excellent.  Pool is open 24 hrs a day.  Many restaurants nearby if needed. Easy to get downtownMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r259389839-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259389839</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Here for an interview</t>
+  </si>
+  <si>
+    <t>I was in town for an interview with United Airlines. I called after I landed at the airport &amp; a FREE shuttle came to get me &amp; bring me to the hotel. The hotel is about 9 miles away. There is also a local FREE shuttle that will take you around town &amp; back to the airport! Awesome! The front desk staff, Carla (I believe her name was) especially, very friendly, efficient, awesome! It's wonderful to get great customer service. This hotel exceeded my expectations.  I was also able to attend the mix. It was dessert day; the cheesecake was delicious, it's also one of my favorite desserts, so another plus. The staff is incredible! Thank you! MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for an interview with United Airlines. I called after I landed at the airport &amp; a FREE shuttle came to get me &amp; bring me to the hotel. The hotel is about 9 miles away. There is also a local FREE shuttle that will take you around town &amp; back to the airport! Awesome! The front desk staff, Carla (I believe her name was) especially, very friendly, efficient, awesome! It's wonderful to get great customer service. This hotel exceeded my expectations.  I was also able to attend the mix. It was dessert day; the cheesecake was delicious, it's also one of my favorite desserts, so another plus. The staff is incredible! Thank you! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r247559173-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247559173</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Good for big families.</t>
+  </si>
+  <si>
+    <t>We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:
+Location:
+If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  
+Cleanliness:
+This is probably the most important area for me, and the staff at this hotel has this down.  The rooms were spotless and the facilities were always clean.  I would give them 5 STARS in this area.
+Service:
+We didn't need much assistance once we checked in, but the staff at the front desk and the housekeeping staff always had smiles on there faces, which is not that common these days;)  Check in was a breeze, and I even checked in about 30 minutes early.  5 STARS!
+Facilities:
+I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that...We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:Location:If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  Cleanliness:This is probably the most important area for me, and the staff at this hotel has this down.  The rooms were spotless and the facilities were always clean.  I would give them 5 STARS in this area.Service:We didn't need much assistance once we checked in, but the staff at the front desk and the housekeeping staff always had smiles on there faces, which is not that common these days;)  Check in was a breeze, and I even checked in about 30 minutes early.  5 STARS!Facilities:I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that this hotel doesn't have a 4 or higher rating.  The hotel is in good repair and is clean, as mentioned earlier, but it does appear to be a bit older.  Also, we stayed on the 1st floor, and there was always (we stayed here 2 nights) the VERY STRONG smell of someone cooking something in our hallway, which annoyed my wife (I thought is smelled pretty good).One thing that stood out was this is the first place I've stayed that has the swimming pool and gym open 24 HOURS!  That's great, because we don't usually get back to the hotel until after most places shut down these areas.Breakfast:This is one of the reasons we chose this hotel.  The full breakfast bar is great for anyone, but when you're traveling with kids, complimentary hot breakfast is a huge perk!  And this place knows how to put out a spread.  The only thing that was missing was biscuits and gravy, but they had plenty of other choices to make up for it.  The down side here was that the juice machine was broken all both mornings of our trip.All in all, this is a good place to stay, and if I need to stay near the airport I will be back.  I recommend this hotel to anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:
+Location:
+If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  
+Cleanliness:
+This is probably the most important area for me, and the staff at this hotel has this down.  The rooms were spotless and the facilities were always clean.  I would give them 5 STARS in this area.
+Service:
+We didn't need much assistance once we checked in, but the staff at the front desk and the housekeeping staff always had smiles on there faces, which is not that common these days;)  Check in was a breeze, and I even checked in about 30 minutes early.  5 STARS!
+Facilities:
+I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that...We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:Location:If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  Cleanliness:This is probably the most important area for me, and the staff at this hotel has this down.  The rooms were spotless and the facilities were always clean.  I would give them 5 STARS in this area.Service:We didn't need much assistance once we checked in, but the staff at the front desk and the housekeeping staff always had smiles on there faces, which is not that common these days;)  Check in was a breeze, and I even checked in about 30 minutes early.  5 STARS!Facilities:I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that this hotel doesn't have a 4 or higher rating.  The hotel is in good repair and is clean, as mentioned earlier, but it does appear to be a bit older.  Also, we stayed on the 1st floor, and there was always (we stayed here 2 nights) the VERY STRONG smell of someone cooking something in our hallway, which annoyed my wife (I thought is smelled pretty good).One thing that stood out was this is the first place I've stayed that has the swimming pool and gym open 24 HOURS!  That's great, because we don't usually get back to the hotel until after most places shut down these areas.Breakfast:This is one of the reasons we chose this hotel.  The full breakfast bar is great for anyone, but when you're traveling with kids, complimentary hot breakfast is a huge perk!  And this place knows how to put out a spread.  The only thing that was missing was biscuits and gravy, but they had plenty of other choices to make up for it.  The down side here was that the juice machine was broken all both mornings of our trip.All in all, this is a good place to stay, and if I need to stay near the airport I will be back.  I recommend this hotel to anyone staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r245743625-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245743625</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Great value for families in transit</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during a layover in Houston.  We chose it for its location (close to airport), free shuttle, free breakfast, reasonably priced suites (AAA rate) and indoor pool.  As a family travelling with a 3 year old who had been awake since 3:30 am, it was great to have an indoor pool to spend the afternoon swimming before we had a light dinner (they serve free social hour light food on certain days of the week) before retiring to our 1 bedroom suite.  Travelling with little kids is always great to have a separate bedroom.  Rooms are basic but clean.  There is a free shuttle that will take you places within 5 miles that took us to and from a restaurant for lunch when we first arrived.We would definitely stay here again if overnighting in Houston.  Only complaint would be the bed in out room was far too soft (woke up with sore back in morning) but this may have been specific to our room.  Fine for one night but if staying for longer would have probably needed a former bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night during a layover in Houston.  We chose it for its location (close to airport), free shuttle, free breakfast, reasonably priced suites (AAA rate) and indoor pool.  As a family travelling with a 3 year old who had been awake since 3:30 am, it was great to have an indoor pool to spend the afternoon swimming before we had a light dinner (they serve free social hour light food on certain days of the week) before retiring to our 1 bedroom suite.  Travelling with little kids is always great to have a separate bedroom.  Rooms are basic but clean.  There is a free shuttle that will take you places within 5 miles that took us to and from a restaurant for lunch when we first arrived.We would definitely stay here again if overnighting in Houston.  Only complaint would be the bed in out room was far too soft (woke up with sore back in morning) but this may have been specific to our room.  Fine for one night but if staying for longer would have probably needed a former bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r245234297-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245234297</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We have stayed in many hotels at IAH, this is definitely the very best.They have thought of everything, free shuttle to airport and local restaurants, fresh cookies, evening reception, wonderful hot breakfast, free wifi, printer to run off your booking pass, etc.Very friendly helpful staff, clean quite rooms, lovely pool area.We will return whenever we are in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed in many hotels at IAH, this is definitely the very best.They have thought of everything, free shuttle to airport and local restaurants, fresh cookies, evening reception, wonderful hot breakfast, free wifi, printer to run off your booking pass, etc.Very friendly helpful staff, clean quite rooms, lovely pool area.We will return whenever we are in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r212099791-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212099791</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable and near IAH</t>
+  </si>
+  <si>
+    <t>We have stayed here a couple of times, its a very nice property with an excellent front desk staff. Rooms &amp; bathrooms are fresh, clean and comfortable. The hotel is close to the intercontinental airport and has plenty of free parking. They also have a shuttle to / from the airport. Special thanks to the front desk staff, Carla ( always smiling ! ),  Senta, and Martin for making us feel so comfortable. And Maria for fixing the breakfast. I look forward to staying at this hotel again and also recommend it to others who wish to be near IAH but not quite at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>We have stayed here a couple of times, its a very nice property with an excellent front desk staff. Rooms &amp; bathrooms are fresh, clean and comfortable. The hotel is close to the intercontinental airport and has plenty of free parking. They also have a shuttle to / from the airport. Special thanks to the front desk staff, Carla ( always smiling ! ),  Senta, and Martin for making us feel so comfortable. And Maria for fixing the breakfast. I look forward to staying at this hotel again and also recommend it to others who wish to be near IAH but not quite at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r210722149-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210722149</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Flying into and out of IAH?  Great place!</t>
+  </si>
+  <si>
+    <t>The front desk staff was great, the room was clean, and a good value for the money.  The bed was wonderful!  The location is so convenient to IAH.  The breakfast was good with some good choices.  I would stay here again! Our only complaint was the van driver.  He got us to where we were going, but did not help us in or out of the van.  I am not a young person and could have used the assistance.  This is the FIRST time in years of traveling that the driver never assisted me in and out of the van or even offered to do so.  It was a disappointment in an otherwise great stay.  But, don't let that sway you.  It is a good value for the price, clean, convenient, and a great room that is a suite for what you would pay elsewhere.  Try to get a room AWAY from the highway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>The front desk staff was great, the room was clean, and a good value for the money.  The bed was wonderful!  The location is so convenient to IAH.  The breakfast was good with some good choices.  I would stay here again! Our only complaint was the van driver.  He got us to where we were going, but did not help us in or out of the van.  I am not a young person and could have used the assistance.  This is the FIRST time in years of traveling that the driver never assisted me in and out of the van or even offered to do so.  It was a disappointment in an otherwise great stay.  But, don't let that sway you.  It is a good value for the price, clean, convenient, and a great room that is a suite for what you would pay elsewhere.  Try to get a room AWAY from the highway noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r207582915-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207582915</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Fine for a hotel airport</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the room immaculately clean. I do wish these properties would upgrade the market place area, some healthier options for food and maybe some wine??? It was fine for a one or two night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the room immaculately clean. I do wish these properties would upgrade the market place area, some healthier options for food and maybe some wine??? It was fine for a one or two night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r194741391-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194741391</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Average at best.</t>
+  </si>
+  <si>
+    <t>Stayed here for a 4 day business trip.  The staff was fantastic.  Everyone was very accomodating, friendly, and did a great job during my stay.  The hotel is ok.  Dated decor in the rooms, and the restuarant was average as well.  The downfall is that the bar is in the hotel next door, and even that isn't an actual resturant (it's a bistro).  The location is poor, as nothing is around and I was informed that the term for this area is Gunnerspoint (shootings) and to not venture out at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Amy L, General Manager at Residence Inn Houston North, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a 4 day business trip.  The staff was fantastic.  Everyone was very accomodating, friendly, and did a great job during my stay.  The hotel is ok.  Dated decor in the rooms, and the restuarant was average as well.  The downfall is that the bar is in the hotel next door, and even that isn't an actual resturant (it's a bistro).  The location is poor, as nothing is around and I was informed that the term for this area is Gunnerspoint (shootings) and to not venture out at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r193280735-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193280735</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Would Stay Here Again</t>
+  </si>
+  <si>
+    <t>We selected this hotel based on the need to have round-trip transportation to/from the airport, and a good room rate. The transportation was good. All of the staff we encountered was very friendly and helpful. The room was clean and spacious, and we made use of the refrigerator and microwave. The washroom was large and comfortable.Two areas that could raise my rating to a 5 would be a firmer mattress, and non-political programming on the eating area's televisions. The Weather Channel or Local News would be preferable.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r192379273-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192379273</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Average Residence Inn</t>
+  </si>
+  <si>
+    <t>It wasn't bad, it wasn't great.  The property needs an upgrade - they've done the lobby and kitchens, but forgot the rest of the hotel.  Staff was notable exception and all were wonderful! Be warned there are really not any restaurants other than fast food in the immediate area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amy L, General Manager at Residence Inn Houston North, responded to this reviewResponded February 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2014</t>
+  </si>
+  <si>
+    <t>It wasn't bad, it wasn't great.  The property needs an upgrade - they've done the lobby and kitchens, but forgot the rest of the hotel.  Staff was notable exception and all were wonderful! Be warned there are really not any restaurants other than fast food in the immediate area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r157259986-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157259986</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>NOT an airport property</t>
+  </si>
+  <si>
+    <t>Waited over 40 minutes for a shuttle to the hotel. Asked upon check in about the van back to the airport in the morning. It runs ONCE an hour. Once. That's it. When I asked why they said it was an "economic issue" (and that was the manager) .... Not sure why this hotel would be considered an airport hotel and be allowed to advertise airport transportation when it is so infrequent. Certainly would never stay here again as I think its misleading advertising and a total lack of service. They are trying to get airport customers when they don't offer 'airport' service. They should be considered like other Residence Inns not with airport in their title that offer local transportation as part of the brand standard.Other than that - the hotel seems fine. Staff is nice enough. Its clean. Regular Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>ResidenceInnIAH, General Manager at Residence Inn Houston North, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Waited over 40 minutes for a shuttle to the hotel. Asked upon check in about the van back to the airport in the morning. It runs ONCE an hour. Once. That's it. When I asked why they said it was an "economic issue" (and that was the manager) .... Not sure why this hotel would be considered an airport hotel and be allowed to advertise airport transportation when it is so infrequent. Certainly would never stay here again as I think its misleading advertising and a total lack of service. They are trying to get airport customers when they don't offer 'airport' service. They should be considered like other Residence Inns not with airport in their title that offer local transportation as part of the brand standard.Other than that - the hotel seems fine. Staff is nice enough. Its clean. Regular Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r152123674-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152123674</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Friendly Service</t>
+  </si>
+  <si>
+    <t>Stayed for one week while on business.  No problems with the hotel and the staff/management were very nice.   The breakfast buffet was very good.  Only issue is with the location.  There is not much to do around the hotel.   We walked next door to the Courtyard for drinks, but they were expensive.   We wanted to be next the airport for work, so it was a trade-off to drive a little ways for a nice dinner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r150458826-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150458826</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Kicked Out</t>
+  </si>
+  <si>
+    <t>My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check...My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check out. At check out we were told "thank you for staying with us and we look forward to seeing you again". I feel that our treatment by  management was very shabby;  I was offended by the whole ordeal and have no intension of ever staying at the chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check...My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check out. At check out we were told "thank you for staying with us and we look forward to seeing you again". I feel that our treatment by  management was very shabby;  I was offended by the whole ordeal and have no intension of ever staying at the chain again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r147408612-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147408612</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly Good</t>
+  </si>
+  <si>
+    <t>I stayed here alone on business.  I choose this hotel as it was priced right and has a hotel shuttle.  I dont usually stay at the extended stay, or residence type places as I always feel like they are the type of things your insurance company sends you to live in when your house burns down.  This one however, was surprisingly good.  Very clean, exceptional staff - professional and friendly.  The rooms were comfortable and clean.  The rooms are very large with full living area and kitchens.  The breakfast was really good as I was expecting a basic American style hotel breakfast - there were many choices, hot and cold - it was also included in the price so bonus. The lounge area in this hotel is also very comfortable, the breakfast bar is located here as well.  The hotel shuttle was quick and the driver remembered my name the next day! I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I stayed here alone on business.  I choose this hotel as it was priced right and has a hotel shuttle.  I dont usually stay at the extended stay, or residence type places as I always feel like they are the type of things your insurance company sends you to live in when your house burns down.  This one however, was surprisingly good.  Very clean, exceptional staff - professional and friendly.  The rooms were comfortable and clean.  The rooms are very large with full living area and kitchens.  The breakfast was really good as I was expecting a basic American style hotel breakfast - there were many choices, hot and cold - it was also included in the price so bonus. The lounge area in this hotel is also very comfortable, the breakfast bar is located here as well.  The hotel shuttle was quick and the driver remembered my name the next day! I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r144100463-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144100463</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Delightful Stay</t>
+  </si>
+  <si>
+    <t>We always enjoy booking in a suite-type hotel and this was our first time staying at a Residence Inn by Marriott.  Upon our arrival, the front desk attendant, Ashley Adio, was an absolute delight and was so attentive to our needs. Our room was extremely comfortable -- the pool, hot tub and exercise room were also great to use -- love the 24hr. availability.  It was so nice to start our day with such an awesome breakfast -- so many delicious selections.  We appreciated the hospitality of the hotel staff and we thoroughly enjoyed our stay and will surely look for Residence Inns for our future travels.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r132123598-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132123598</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Doesn't honor reservations</t>
+  </si>
+  <si>
+    <t>We four senior citizens had reservations guaranteed by credit card for a two bedroom suite.  Called the hotel 45 minutes before arriving and were told, for the first time, that they were overbooked and our two room suite was not available.They put us up in a motel with lumpy beds.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r116133820-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116133820</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Avoid staying here</t>
+  </si>
+  <si>
+    <t>This hotel, and I do use the term in its broadest sense possible here, is just not worth it. It is located at an area called Greenspoint, but the locals only refer to it as "Gunspoint". Even the receptionist said one shouldn´t be taking walks outside here.....
+Supposedly a non-smoking hotel, the rooms are not, or at least the ones I have stayed in. The stink of cigarette smoke is evident for any non-smoker and it doesn´t matter how many times they may have "cleaned" the room, it still stinks. And the construction company who built this hotel obviously didn´t have in mind the fact that guests like to sleep through the night without hearing, very clearly, the neighbours on all sides, up and down. Because the walls are so thin you will have no problem in hearing when your neighbour is at the toilet, in the shower or talking on the phone. And if you turn the aircondition off to try to avoid the noise, rest assured that your neighbours airconditions steady hum will resonate through to your room.
+Breakfast is the usual unhealthy food. If your used to european breakfast you will be highly disappointed. Everything is mass produced and is definately not made by any chefs.
+Buy/make your own breakfast instead.
+There is also on days monday thru wednesday the possibility of eating dinner at the premises but this also is of the unhealthy kind and mass...This hotel, and I do use the term in its broadest sense possible here, is just not worth it. It is located at an area called Greenspoint, but the locals only refer to it as "Gunspoint". Even the receptionist said one shouldn´t be taking walks outside here.....Supposedly a non-smoking hotel, the rooms are not, or at least the ones I have stayed in. The stink of cigarette smoke is evident for any non-smoker and it doesn´t matter how many times they may have "cleaned" the room, it still stinks. And the construction company who built this hotel obviously didn´t have in mind the fact that guests like to sleep through the night without hearing, very clearly, the neighbours on all sides, up and down. Because the walls are so thin you will have no problem in hearing when your neighbour is at the toilet, in the shower or talking on the phone. And if you turn the aircondition off to try to avoid the noise, rest assured that your neighbours airconditions steady hum will resonate through to your room.Breakfast is the usual unhealthy food. If your used to european breakfast you will be highly disappointed. Everything is mass produced and is definately not made by any chefs.Buy/make your own breakfast instead.There is also on days monday thru wednesday the possibility of eating dinner at the premises but this also is of the unhealthy kind and mass produced.There is a tiny gym with two treadmills and an elliptical. And there is a very small pool as well, not for taking in a few laps if that´s your fancy.You have wifi here but it is exeptionally slow. And it falls out from time to time.Probably the only positive thing about this hotel is the staff who are friendly and service minded.So to sum up - please, please, please spend your money elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This hotel, and I do use the term in its broadest sense possible here, is just not worth it. It is located at an area called Greenspoint, but the locals only refer to it as "Gunspoint". Even the receptionist said one shouldn´t be taking walks outside here.....
+Supposedly a non-smoking hotel, the rooms are not, or at least the ones I have stayed in. The stink of cigarette smoke is evident for any non-smoker and it doesn´t matter how many times they may have "cleaned" the room, it still stinks. And the construction company who built this hotel obviously didn´t have in mind the fact that guests like to sleep through the night without hearing, very clearly, the neighbours on all sides, up and down. Because the walls are so thin you will have no problem in hearing when your neighbour is at the toilet, in the shower or talking on the phone. And if you turn the aircondition off to try to avoid the noise, rest assured that your neighbours airconditions steady hum will resonate through to your room.
+Breakfast is the usual unhealthy food. If your used to european breakfast you will be highly disappointed. Everything is mass produced and is definately not made by any chefs.
+Buy/make your own breakfast instead.
+There is also on days monday thru wednesday the possibility of eating dinner at the premises but this also is of the unhealthy kind and mass...This hotel, and I do use the term in its broadest sense possible here, is just not worth it. It is located at an area called Greenspoint, but the locals only refer to it as "Gunspoint". Even the receptionist said one shouldn´t be taking walks outside here.....Supposedly a non-smoking hotel, the rooms are not, or at least the ones I have stayed in. The stink of cigarette smoke is evident for any non-smoker and it doesn´t matter how many times they may have "cleaned" the room, it still stinks. And the construction company who built this hotel obviously didn´t have in mind the fact that guests like to sleep through the night without hearing, very clearly, the neighbours on all sides, up and down. Because the walls are so thin you will have no problem in hearing when your neighbour is at the toilet, in the shower or talking on the phone. And if you turn the aircondition off to try to avoid the noise, rest assured that your neighbours airconditions steady hum will resonate through to your room.Breakfast is the usual unhealthy food. If your used to european breakfast you will be highly disappointed. Everything is mass produced and is definately not made by any chefs.Buy/make your own breakfast instead.There is also on days monday thru wednesday the possibility of eating dinner at the premises but this also is of the unhealthy kind and mass produced.There is a tiny gym with two treadmills and an elliptical. And there is a very small pool as well, not for taking in a few laps if that´s your fancy.You have wifi here but it is exeptionally slow. And it falls out from time to time.Probably the only positive thing about this hotel is the staff who are friendly and service minded.So to sum up - please, please, please spend your money elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r21012022-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21012022</t>
+  </si>
+  <si>
+    <t>10/19/2008</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Checked in around 9pm with ease. The two bedroom suite was very clean and comfortable. There wasn't enough linens for the pullout sofa but we managed. There is a great patio right off the main lobby that is great for having a drink or smoke. It seemed like a mini bar on the Friday night we checked in, which was fine as our group joined the others outside for some unwinding before bedtime. The breakfast was great. Not your ordinary continental breakfast as it had several varieties of hot and cold foods. I would stay here anytime I'm in the Houston area and would recommend it to others.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r19784589-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19784589</t>
+  </si>
+  <si>
+    <t>09/05/2008</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights on a business trip.  Good price, very convenient location for me - I booked here because my training facility was 1 street down from the hotel, it is very close to the airport, I am a Marriott Rewards member, and I was given a discounted rate since the training facility has a deal with the hotel.
+Staff were very friendly, I had no problems checking in and out.
+Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.
+Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.
+Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But...Stayed here for 6 nights on a business trip.  Good price, very convenient location for me - I booked here because my training facility was 1 street down from the hotel, it is very close to the airport, I am a Marriott Rewards member, and I was given a discounted rate since the training facility has a deal with the hotel.Staff were very friendly, I had no problems checking in and out.Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But nevertheless, there is a brochure card on the desk which advertises the free wireless, and on it, there is a number to call for assistance.  I called, explained the issue, and I was surfing within 5 minutes of placing the call.  Never got disconnected over the entire 7 days I was there.Lots of eating places nearby - fast food like Subway, McDonalds, Popeyes, Pizza Hut, Taco Bell, etc are all within a couple minutes drive.  There is a good sushi place called Ichibon, just about 3 minutes drive away, along the way to Greenspoint Mall (which is about 5 minutes drive away).  The Mall is not great for shopping, it's moreso good for quick food from the food court, and basics.The area is reported to be fairly dangerous (referred to as "Gunpoint" rather than "Greenspoint"), but as with anywhere in the world, so long as you are mindful about where you are and what you're doing, everything should be just fine.  Just don't go walking out in any dark lonely areas at 11 pm with bright gold jewellry from head to toe - all it really is about is just using some common sense.  I didn't have any problems while there, and never felt unsafe.It is some distance away from Downtown, and the bigger shopping and entertainment areas in Houston, so I would not advise the location to anyone who intends to be partying up a storm.  However, if you need somewhere to rest your head and take a shower, which is close to the airport, has everything you need within a few minutes drive (dining, WalMart, etc), and don't really care to be out all night living it up, then this is a great option.  If I return to Houston to recertify my training again in 2 years, I will be staying at this hotel again without a doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Stayed here for 6 nights on a business trip.  Good price, very convenient location for me - I booked here because my training facility was 1 street down from the hotel, it is very close to the airport, I am a Marriott Rewards member, and I was given a discounted rate since the training facility has a deal with the hotel.
+Staff were very friendly, I had no problems checking in and out.
+Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.
+Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.
+Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But...Stayed here for 6 nights on a business trip.  Good price, very convenient location for me - I booked here because my training facility was 1 street down from the hotel, it is very close to the airport, I am a Marriott Rewards member, and I was given a discounted rate since the training facility has a deal with the hotel.Staff were very friendly, I had no problems checking in and out.Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But nevertheless, there is a brochure card on the desk which advertises the free wireless, and on it, there is a number to call for assistance.  I called, explained the issue, and I was surfing within 5 minutes of placing the call.  Never got disconnected over the entire 7 days I was there.Lots of eating places nearby - fast food like Subway, McDonalds, Popeyes, Pizza Hut, Taco Bell, etc are all within a couple minutes drive.  There is a good sushi place called Ichibon, just about 3 minutes drive away, along the way to Greenspoint Mall (which is about 5 minutes drive away).  The Mall is not great for shopping, it's moreso good for quick food from the food court, and basics.The area is reported to be fairly dangerous (referred to as "Gunpoint" rather than "Greenspoint"), but as with anywhere in the world, so long as you are mindful about where you are and what you're doing, everything should be just fine.  Just don't go walking out in any dark lonely areas at 11 pm with bright gold jewellry from head to toe - all it really is about is just using some common sense.  I didn't have any problems while there, and never felt unsafe.It is some distance away from Downtown, and the bigger shopping and entertainment areas in Houston, so I would not advise the location to anyone who intends to be partying up a storm.  However, if you need somewhere to rest your head and take a shower, which is close to the airport, has everything you need within a few minutes drive (dining, WalMart, etc), and don't really care to be out all night living it up, then this is a great option.  If I return to Houston to recertify my training again in 2 years, I will be staying at this hotel again without a doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r6154221-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6154221</t>
+  </si>
+  <si>
+    <t>11/18/2006</t>
+  </si>
+  <si>
+    <t>clean but noisy</t>
+  </si>
+  <si>
+    <t>I was asked to review and sign a "noise policy" form at check in, which stressed "11pm curfew" and a "no party policy".  However, sounded like a marching band above our room most of the night.  Called front desk to complain, noise abated for awhile, but came back.  I suspect this was due to poor soundproofing rather than any real "party" going on.  I have stayed in over 100 residence Inn properites in the USA, and while the design of this hotel is very typical of this brand, for some reason the noise from above and outside the room was ridiculous.  Room was quite clean, but no sheets provided for pullout.  Breakfast was below average for this brand.  Close to airport, but otherwise there is nothing close to this place in terms of food/gas/shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was asked to review and sign a "noise policy" form at check in, which stressed "11pm curfew" and a "no party policy".  However, sounded like a marching band above our room most of the night.  Called front desk to complain, noise abated for awhile, but came back.  I suspect this was due to poor soundproofing rather than any real "party" going on.  I have stayed in over 100 residence Inn properites in the USA, and while the design of this hotel is very typical of this brand, for some reason the noise from above and outside the room was ridiculous.  Room was quite clean, but no sheets provided for pullout.  Breakfast was below average for this brand.  Close to airport, but otherwise there is nothing close to this place in terms of food/gas/shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r5019757-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5019757</t>
+  </si>
+  <si>
+    <t>04/29/2006</t>
+  </si>
+  <si>
+    <t>Broken Reservations, Feeble Explanations</t>
+  </si>
+  <si>
+    <t>When we arrived at the Residence Inn Houston Intercontinental Airport, two other business travelers and myself were told that the hotel could not honor the reservations we had made.  The reservations were guaranteed with credit cards.  Residence Inn sent us to another hotel, not operated by Marriott, which was quite a bit worse in terms of location, noise, and room quality.  The explanation the Residence Inn staff offered was that some current guests had decided to extend their stay beyond the term of their original reservation.  After a long email exchange with the hotel, I was never able to obtain an explanation as to why the hotel did not simply tell the guests who tried to extend their reservations that they had to leave.  My suspicion is that the extending guests were paying a higher rate than we were going to.  I don't like gambling that my reservations will be honored when I fly into a different city.  I won't try this turkey again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>When we arrived at the Residence Inn Houston Intercontinental Airport, two other business travelers and myself were told that the hotel could not honor the reservations we had made.  The reservations were guaranteed with credit cards.  Residence Inn sent us to another hotel, not operated by Marriott, which was quite a bit worse in terms of location, noise, and room quality.  The explanation the Residence Inn staff offered was that some current guests had decided to extend their stay beyond the term of their original reservation.  After a long email exchange with the hotel, I was never able to obtain an explanation as to why the hotel did not simply tell the guests who tried to extend their reservations that they had to leave.  My suspicion is that the extending guests were paying a higher rate than we were going to.  I don't like gambling that my reservations will be honored when I fly into a different city.  I won't try this turkey again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r4073603-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4073603</t>
+  </si>
+  <si>
+    <t>10/29/2005</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed here because it was so near Intercontinental Airport.  We were traveling with an older couple, and wanted the privacy of separate bedrooms, but also the convenience of being near by in case of problems. The room was immaculate and had everything we were looking for (except the carpets have been shampooed that day and were still a little damp).  We paid the senior rate of $139 for 2 bedroom/2 bath, full kitchen, a sitting area with TV, and a TV in each bedroom.  Quite a nice value at $68 per couple.  The free breakfast was wonderful - sausage, eggs, the works!  And the breakfast room opened early enough to allow us time for breakfast and still make our early flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here because it was so near Intercontinental Airport.  We were traveling with an older couple, and wanted the privacy of separate bedrooms, but also the convenience of being near by in case of problems. The room was immaculate and had everything we were looking for (except the carpets have been shampooed that day and were still a little damp).  We paid the senior rate of $139 for 2 bedroom/2 bath, full kitchen, a sitting area with TV, and a TV in each bedroom.  Quite a nice value at $68 per couple.  The free breakfast was wonderful - sausage, eggs, the works!  And the breakfast room opened early enough to allow us time for breakfast and still make our early flight.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1918,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1950,3748 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>255</v>
+      </c>
+      <c r="X26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>324</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>325</v>
+      </c>
+      <c r="X36" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>346</v>
+      </c>
+      <c r="X38" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>353</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>346</v>
+      </c>
+      <c r="X39" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>205</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>375</v>
+      </c>
+      <c r="X42" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>383</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>384</v>
+      </c>
+      <c r="X43" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>404</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="L46" t="s">
+        <v>406</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>416</v>
+      </c>
+      <c r="X47" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s">
+        <v>423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>424</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" t="s">
+        <v>426</v>
+      </c>
+      <c r="K49" t="s">
+        <v>427</v>
+      </c>
+      <c r="L49" t="s">
+        <v>428</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>429</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>433</v>
+      </c>
+      <c r="K50" t="s">
+        <v>434</v>
+      </c>
+      <c r="L50" t="s">
+        <v>435</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>436</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>439</v>
+      </c>
+      <c r="J51" t="s">
+        <v>440</v>
+      </c>
+      <c r="K51" t="s">
+        <v>441</v>
+      </c>
+      <c r="L51" t="s">
+        <v>442</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>443</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>449</v>
+      </c>
+      <c r="O52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>451</v>
+      </c>
+      <c r="J53" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" t="s">
+        <v>453</v>
+      </c>
+      <c r="L53" t="s">
+        <v>454</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" t="s">
+        <v>205</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>481</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>484</v>
+      </c>
+      <c r="J58" t="s">
+        <v>485</v>
+      </c>
+      <c r="K58" t="s">
+        <v>486</v>
+      </c>
+      <c r="L58" t="s">
+        <v>487</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_543.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_543.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r601309937-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223176</t>
+  </si>
+  <si>
+    <t>601309937</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad experience </t>
+  </si>
+  <si>
+    <t>We are frequent Residence Inn customers. This is our first bad experience with them.Rooms were very unclean and outdated. The bathrooms were not cleaned when we got the room and were not cleaned even after requested twice. Breakfast was not refilled properly. Dishwashing liquid was not provided. Overall really unhappy stay.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r599431645-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599431645</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Erratic experience</t>
+  </si>
+  <si>
+    <t>The overall experience has been erratic, sometimes good, sometimes not so much... The rooms are comfortable, the shuttle service provided are convenient, breakfast was average. But in many cases it failed to live up to the expectations. But a special mention of Jasmine and Juan at the front desk is made here for their helpful nature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r579474286-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223176</t>
-  </si>
-  <si>
     <t>579474286</t>
   </si>
   <si>
@@ -177,9 +216,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Diana F, Manager at Residence Inn Houston North, responded to this reviewResponded May 11, 2018</t>
   </si>
   <si>
@@ -220,6 +256,42 @@
   </si>
   <si>
     <t>The front desk employee named Jasmine didn’t give me the correct information for the shuttle service and when i came back down in the morning to ask her again she said she couldn’t help me. I had to pay for a taxi to get to the airport because of the wrong information she gave me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r578682961-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578682961</t>
+  </si>
+  <si>
+    <t>Bed Bugs Stay Away</t>
+  </si>
+  <si>
+    <t>Arrived at this property very late near midnight woke up in the morning to find bedbugs in the bed… Stay at Marriott properties all over the world and have never experienced that ever anywhere on the planet. Better to stay elsewhere!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Arrived at this property very late near midnight woke up in the morning to find bedbugs in the bed… Stay at Marriott properties all over the world and have never experienced that ever anywhere on the planet. Better to stay elsewhere!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r575519156-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575519156</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Rude Front Desk Girl</t>
+  </si>
+  <si>
+    <t>The front desk girl named Jasmine was so rude to us. She didn’t even greet us when we walked in because she was using her cellphone and when we asked her for a room she gave us an attitude. Y’all should really hire nicer people to work here because honestly it makes me not want to go back to this hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r557664271-Residence_Inn_Houston_North-Houston_Texas.html</t>
@@ -243,9 +315,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Jake I, General Manager at Residence Inn Houston North, responded to this reviewResponded February 1, 2018</t>
   </si>
   <si>
@@ -309,6 +378,54 @@
     <t>Disappointment began the day of arrival, when my request for 1:00 pm early check-in was ignored.  I did receive a phone call asking if I was still checking in, but was never informed the room wouldn't be ready until nearly 3:00 pm.  I spent nearly an hour in the lobby waiting for my room to be cleaned.Next disappointment came that evening, when I sat on the bed, and the mattress sank 3 inches.  And like the bed, the sofa also felt as if it had been used by children jumping up and down as on a trampoline.Maintenance:  How can a housekeeper ignore the fact that a kitchen faucet pulls up out of the counter when the handle is lifted to turn on the water?   The faucet was fixed a few days after I reported the matter to the front desk, but the guest should arrive to a room that has no maintenance issues.Breakfast and evening social:  The evening social and weekend breakfast are staffed by members of railroads in developing countries, and are just as timely.  And the scrambled eggs were always rubbery.Pro:  The hotel location offers easy access to the Sam Houston Tollway, and also offers easy access to downtown via the Hardy Toll Road.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r545352586-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545352586</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Not a great experience</t>
+  </si>
+  <si>
+    <t>This hotel was a disappointment, not only was it difficult to get to (only toll roads), it was not at all well managed. Check-in could have been on a training film on how not to greet customers since the clerk certainly needed some guidance -- but the housekeeping and maintenance staff were helpful when we found out none of our card keys worked. I’m sure the place must be on a list for upgrades, but a hotel with broken handrails, sunken mattresses, torn carpets, sparse and overcooked breakfast, no recycle bins, no recognition of gold status, and a generally shabby appearance is not what we normally find at our usual Marriott West/Energy Corridor. Our opinion of this hotel dropped another notch when the morning desk clerk informed us that Marriott no longer provided courtesy newspapers, blaming their absence on a vague corporate policy she could not explain, I guess she assumed we hadn't stayed at other Marriott’s while on the road. As a first, I responded to an emailed corporate survey expressing general dissatisfaction. I received a cut and paste, boiler plate response from the GM that came right out of a manager’s workbook. Pretty obvious what the source of the problems are here..MoreShow less</t>
+  </si>
+  <si>
+    <t>Jake I, General Manager at Residence Inn Houston North, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was a disappointment, not only was it difficult to get to (only toll roads), it was not at all well managed. Check-in could have been on a training film on how not to greet customers since the clerk certainly needed some guidance -- but the housekeeping and maintenance staff were helpful when we found out none of our card keys worked. I’m sure the place must be on a list for upgrades, but a hotel with broken handrails, sunken mattresses, torn carpets, sparse and overcooked breakfast, no recycle bins, no recognition of gold status, and a generally shabby appearance is not what we normally find at our usual Marriott West/Energy Corridor. Our opinion of this hotel dropped another notch when the morning desk clerk informed us that Marriott no longer provided courtesy newspapers, blaming their absence on a vague corporate policy she could not explain, I guess she assumed we hadn't stayed at other Marriott’s while on the road. As a first, I responded to an emailed corporate survey expressing general dissatisfaction. I received a cut and paste, boiler plate response from the GM that came right out of a manager’s workbook. Pretty obvious what the source of the problems are here..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r543475206-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543475206</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home under reconstruction but RI felt like a home </t>
+  </si>
+  <si>
+    <t>Cannot say enough about how comfortable the suites are. Morning Jog walk along street leading to hotel and connects  to a small walking trail. The breakfast and mix staff are very attentive , friendly and professional.  Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jake I, General Manager at Residence Inn Houston North, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Cannot say enough about how comfortable the suites are. Morning Jog walk along street leading to hotel and connects  to a small walking trail. The breakfast and mix staff are very attentive , friendly and professional.  Enjoy!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r531710420-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -387,6 +504,57 @@
     <t>My family got caught in Hurricane Harvey in Houston TX, one of the worst storms in history.  We ended up at this Hotel where it became a home away from home.  The ladies at the front desk Starr, Jada, and Diana were extremely helpful despite being inundated with flood victims.  They kept hot food and clean towels and linens available for us whenever we needed them, and really provided a place of comfort as many of us lost our homes.  If you are ever travelling through or to Houston I highly recommend this Hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r511191254-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511191254</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Almost excellent</t>
+  </si>
+  <si>
+    <t>For this class of hotel, I thought that the facilities and service were very good.  The front desk was friendly and helpful both when I had to reschedule due to a canceled flight as well as upon arrival and during our stay.  I had seen some reviews complaining about cleanliness, but our room was spic and span.  The grout in the bathrooms was bright white and I did not see any problems with cleanliness. Breakfast was also very solid with some hot options to complement the continental offerings.  While you will find the standard waffle maker and pot of oatmeal, they did offer some extras that make breakfast more enjoyable.  The kids enjoyed adding whip cream  and raspberry sauce to their waffles while my wife enjoyed the iced coffee that they served.The hotel was on the way to a 5 star review, but we were disappointed with the shuttle service.  They only run on the hour which made what would have been an already early morning for us even earlier to wake up the kids to get to the airport.  However the most aggravating part of it was when the driver passed up the terminal we were departing from because they "go in alphabetical order".  As a result we had to drive all the way back around the airport to get back to the terminal we had passed up earlier.  This shuttle efficiency should be looked at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>For this class of hotel, I thought that the facilities and service were very good.  The front desk was friendly and helpful both when I had to reschedule due to a canceled flight as well as upon arrival and during our stay.  I had seen some reviews complaining about cleanliness, but our room was spic and span.  The grout in the bathrooms was bright white and I did not see any problems with cleanliness. Breakfast was also very solid with some hot options to complement the continental offerings.  While you will find the standard waffle maker and pot of oatmeal, they did offer some extras that make breakfast more enjoyable.  The kids enjoyed adding whip cream  and raspberry sauce to their waffles while my wife enjoyed the iced coffee that they served.The hotel was on the way to a 5 star review, but we were disappointed with the shuttle service.  They only run on the hour which made what would have been an already early morning for us even earlier to wake up the kids to get to the airport.  However the most aggravating part of it was when the driver passed up the terminal we were departing from because they "go in alphabetical order".  As a result we had to drive all the way back around the airport to get back to the terminal we had passed up earlier.  This shuttle efficiency should be looked at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r507837850-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507837850</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>We had a very good stay here. The room was clean and spacious!  Front desk staff was helpful with restaurant suggestions nearby. Breakfast was very nice with pleasant, comfortable surroundings. A great place to stay near airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>We had a very good stay here. The room was clean and spacious!  Front desk staff was helpful with restaurant suggestions nearby. Breakfast was very nice with pleasant, comfortable surroundings. A great place to stay near airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r506637348-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,9 +570,6 @@
     <t>We don't usually aim at hotels over $125 or so for over-nighting; but we thought we'd splurge a little after flying in at midnight, following our 2 weeks in Mexico. First, the good: the front-desk staff was as considerate and helpful as at any property we've ever stayed at. From the receptionist who helped book the night, to the shuttle driver who dropped everything to get us to IAH on time after our three-hour drive in traffic, to a DIFFERENT driver who picked us up after midnight on our return; everyone was friendly and helpful. The set-up for parking our car was easy and straightforward, as well.Unfortunately, the physical hotel itself is (as noted in other reviews) showing its wear. In addition, there were some lapses in cleanliness that surprised me, given the price of a single night's stay: trash in the hall next to our door when we checked in, a hair on the box of soap in the bathroom, pieces of trash in the floor drain of the bathroom.We stayed in 4 different properties on this trip - this was the most expensive on a per-night basis; yet was BY FAR, the most disappointing in regards to cleanliness and overall "niceness."If we'd wanted a Motel 6, we could've stayed at one.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded July 30, 2017</t>
   </si>
   <si>
@@ -462,15 +627,57 @@
     <t>Terrible service we got stuck in Houston due to weather. Called residence Inn and waited more than an hour for the shuttle after we were told 20 minutes by Mauricio.  Everytime he said 10 more minutes.  Advice to management: don't promise what you can't provideMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r490501060-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490501060</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Liked it but the kitchen needs a bit of a renewal. Good appliances, great staff. Old elevator. The family suite (two- bedroom, two bathrooms) does have a fireplace though at the time of our visit they had them all out of service. Decent breakfast. Marriott is still a good brand. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Liked it but the kitchen needs a bit of a renewal. Good appliances, great staff. Old elevator. The family suite (two- bedroom, two bathrooms) does have a fireplace though at the time of our visit they had them all out of service. Decent breakfast. Marriott is still a good brand. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r475980220-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475980220</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Place that's ok to stay at for a couple of nights</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to the airport and my best friend's home. We had a studio type room with a kitchenette. The room space was ok for the price we paid but I just think that everything was squeezed into a small space. I think I was comparing it with other Residence Inn properties we have stayed at. If you're in Houston for only a night or two. This place would suffice. It's still some driving distance to a few restaurants but there's a Jack In The Box right next to the hotel if you're too lazy to drive somewhere else. Service wise, the reception staff were ok and are able to answer questions immediately. It would be fair to say that they are prompt in responding to guest requests. There's a cut off time for room cleaning that you need to be mindful of so if you have requests, make sure you have them done before housekeeping heads out.Would I recommend it to other people? Yes! But then again only if you just plan to sleep in it and not to chill out or relax.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of its proximity to the airport and my best friend's home. We had a studio type room with a kitchenette. The room space was ok for the price we paid but I just think that everything was squeezed into a small space. I think I was comparing it with other Residence Inn properties we have stayed at. If you're in Houston for only a night or two. This place would suffice. It's still some driving distance to a few restaurants but there's a Jack In The Box right next to the hotel if you're too lazy to drive somewhere else. Service wise, the reception staff were ok and are able to answer questions immediately. It would be fair to say that they are prompt in responding to guest requests. There's a cut off time for room cleaning that you need to be mindful of so if you have requests, make sure you have them done before housekeeping heads out.Would I recommend it to other people? Yes! But then again only if you just plan to sleep in it and not to chill out or relax.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r475818522-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
     <t>475818522</t>
   </si>
   <si>
-    <t>04/15/2017</t>
-  </si>
-  <si>
     <t>Our room smells like fries!!</t>
   </si>
   <si>
@@ -531,9 +738,6 @@
     <t>Note to management: train your cleaning staff and maintenance. The list is long and I really wouldn't know where to begin. I have never written a review on Trip Advisor and actually just signed up to leave one just for this Marriott. We won't be returning, you are giving the Marriott chain a bad name.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Management response:Responded March 22, 2017</t>
   </si>
   <si>
@@ -543,6 +747,54 @@
     <t>Note to management: train your cleaning staff and maintenance. The list is long and I really wouldn't know where to begin. I have never written a review on Trip Advisor and actually just signed up to leave one just for this Marriott. We won't be returning, you are giving the Marriott chain a bad name.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r462585509-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462585509</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>No problems here</t>
+  </si>
+  <si>
+    <t>We flew in and called for the airport shuttle to pick us up on Super Bowl weekend.  The shuttle arrived quite promptly considering all of the traffic.  When we arrived for check-in the front desk attendants were very friendly and full of information.  We were able to arrange for our shuttle in the morning with them also. They helped us located a place to get some late night food delivered.  They even had a little snack shop where you could by some stuff too. Our room was a nice suite with a little kitchenette, sitting area and king size bed(so comfy).  The room was spacious and clean.  You could hear the hum of the interstate but we were so tired after a day of traveling that we barely noticed.  There was a complimentary breakfast in the morning which had a good variety and was pretty tasty.  We go the hotel shuttle back to the airport which is a nice feature.  They only problem with that was that the shuttle goes back and forth between this hotel and the Marriott next door.  A guy from the Marriott was late for the shuttle and although we had just left the parking lot we had to turn around to go back and get this guy.  Even so, the driver was great and we arrived back at the airport to catch our cruise transfer to Galveston without a problem.  We would probably stay here...We flew in and called for the airport shuttle to pick us up on Super Bowl weekend.  The shuttle arrived quite promptly considering all of the traffic.  When we arrived for check-in the front desk attendants were very friendly and full of information.  We were able to arrange for our shuttle in the morning with them also. They helped us located a place to get some late night food delivered.  They even had a little snack shop where you could by some stuff too. Our room was a nice suite with a little kitchenette, sitting area and king size bed(so comfy).  The room was spacious and clean.  You could hear the hum of the interstate but we were so tired after a day of traveling that we barely noticed.  There was a complimentary breakfast in the morning which had a good variety and was pretty tasty.  We go the hotel shuttle back to the airport which is a nice feature.  They only problem with that was that the shuttle goes back and forth between this hotel and the Marriott next door.  A guy from the Marriott was late for the shuttle and although we had just left the parking lot we had to turn around to go back and get this guy.  Even so, the driver was great and we arrived back at the airport to catch our cruise transfer to Galveston without a problem.  We would probably stay here again if we were looking for a place close to the airport in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We flew in and called for the airport shuttle to pick us up on Super Bowl weekend.  The shuttle arrived quite promptly considering all of the traffic.  When we arrived for check-in the front desk attendants were very friendly and full of information.  We were able to arrange for our shuttle in the morning with them also. They helped us located a place to get some late night food delivered.  They even had a little snack shop where you could by some stuff too. Our room was a nice suite with a little kitchenette, sitting area and king size bed(so comfy).  The room was spacious and clean.  You could hear the hum of the interstate but we were so tired after a day of traveling that we barely noticed.  There was a complimentary breakfast in the morning which had a good variety and was pretty tasty.  We go the hotel shuttle back to the airport which is a nice feature.  They only problem with that was that the shuttle goes back and forth between this hotel and the Marriott next door.  A guy from the Marriott was late for the shuttle and although we had just left the parking lot we had to turn around to go back and get this guy.  Even so, the driver was great and we arrived back at the airport to catch our cruise transfer to Galveston without a problem.  We would probably stay here...We flew in and called for the airport shuttle to pick us up on Super Bowl weekend.  The shuttle arrived quite promptly considering all of the traffic.  When we arrived for check-in the front desk attendants were very friendly and full of information.  We were able to arrange for our shuttle in the morning with them also. They helped us located a place to get some late night food delivered.  They even had a little snack shop where you could by some stuff too. Our room was a nice suite with a little kitchenette, sitting area and king size bed(so comfy).  The room was spacious and clean.  You could hear the hum of the interstate but we were so tired after a day of traveling that we barely noticed.  There was a complimentary breakfast in the morning which had a good variety and was pretty tasty.  We go the hotel shuttle back to the airport which is a nice feature.  They only problem with that was that the shuttle goes back and forth between this hotel and the Marriott next door.  A guy from the Marriott was late for the shuttle and although we had just left the parking lot we had to turn around to go back and get this guy.  Even so, the driver was great and we arrived back at the airport to catch our cruise transfer to Galveston without a problem.  We would probably stay here again if we were looking for a place close to the airport in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r452308447-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452308447</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfy, punctual</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for an overnight layover. Most comfortable bed I have had in a hotel in a long while. Staff was very professional and accommodating. Shuttle was excellent and fast. Only reason for 4 star was noise factor of foot traffic above, and luckily the guests upstairs were not party animals.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Cynthia M, Manager at Residence Inn Houston North, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for an overnight layover. Most comfortable bed I have had in a hotel in a long while. Staff was very professional and accommodating. Shuttle was excellent and fast. Only reason for 4 star was noise factor of foot traffic above, and luckily the guests upstairs were not party animals.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r425771391-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -621,6 +873,54 @@
     <t>Massive rooms. Super clean. The staff is kind. The location is right off the highway.  There are a few nearby places to eat. The breakfast is good and beds are cozy. I will stay here again. The rooms have a full kitchen which is very nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r418095838-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418095838</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>An Ok Airport Hotel</t>
+  </si>
+  <si>
+    <t>Spent Labor Day weekend with my family here. Check in process could have better, but all in all it was a good experience as my family was comfortable. Outside appearance needs some sprucing up. Close to the Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Spent Labor Day weekend with my family here. Check in process could have better, but all in all it was a good experience as my family was comfortable. Outside appearance needs some sprucing up. Close to the Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r384311241-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384311241</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel that is near airport</t>
+  </si>
+  <si>
+    <t>Stayed here recently while in Houston and hotel is nice but could use an update. Hotel is near airport which is good. Room was clean and breakfast was standard fare for residence inn. Staff were friendly and helpful when asked questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here recently while in Houston and hotel is nice but could use an update. Hotel is near airport which is good. Room was clean and breakfast was standard fare for residence inn. Staff were friendly and helpful when asked questions.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r381417485-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -636,9 +936,6 @@
     <t>We had stayed a night with half of my girl scout troop. We arrived early, and the staff was welcoming and accommodated us in. The young lady who tended to us let us know about the services they had. The over night person was quick to help us when we needed extra pillows and sheets. Omg the cleaning ladies are lovely and greet you with a smile. This isn't my first time there. But every time I'm there I feel very comfortable. We will be going back soonMoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -690,6 +987,57 @@
     <t>I often stay here for business, but even an overnight guest will enjoy the benefits of staying here. Approximately 10 - 15 minutes from IAH, and usually advertised for $89/night. The hotel van will take you within a 5 mile radius to hotels and shopping. The staff here is absolutely the best attribute of the hotel. I feel like family while I am here. The rooms are well maintained and spacious. Breakfast is served daily, and light dinners on Mondays and Tuesdays.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r379489233-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379489233</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>clean, friendly, efficient</t>
+  </si>
+  <si>
+    <t>We ended up at this hotel because our flight from Phoenix to Boston had a missed connection in Houston.  It was muggy and hot that night and people were cranky!  I want to give kudos to our shuttle driver - mid 20s - 30 black man who was courteous and friendly.  He got a shuttle full of cranky travelers to various hotels.  He showed such kindness to an elderly non English speaking lady.  I don't know his name but the time was about 9-10 pm on Wednesday June 1 -- maybe you can pass comments on to his supervisor.  When we got to your hotel, Juan made us feel welcome and helped us get some necessities for our night as we had NO luggage.  Juan was wonderful and truly helped us feel at home and comfortable.  There were some guests at your hotel who were total jerks -- maybe they were cranky because their flights were cancelled but there is no need to take it out on the hotel staff.  My son, daughter and I all give Juan high marks for professionalism and friendliness.  In the morning the breakfast hostess attendant - sweet hispanic lady and someone else who appeared to be a manager - was also very kind and professional.  She was a pretty short black woman wearing a polka dot shirt.  The room was clean and quiet.  The bed was very comfortable.  Your hotel was a nice experience...We ended up at this hotel because our flight from Phoenix to Boston had a missed connection in Houston.  It was muggy and hot that night and people were cranky!  I want to give kudos to our shuttle driver - mid 20s - 30 black man who was courteous and friendly.  He got a shuttle full of cranky travelers to various hotels.  He showed such kindness to an elderly non English speaking lady.  I don't know his name but the time was about 9-10 pm on Wednesday June 1 -- maybe you can pass comments on to his supervisor.  When we got to your hotel, Juan made us feel welcome and helped us get some necessities for our night as we had NO luggage.  Juan was wonderful and truly helped us feel at home and comfortable.  There were some guests at your hotel who were total jerks -- maybe they were cranky because their flights were cancelled but there is no need to take it out on the hotel staff.  My son, daughter and I all give Juan high marks for professionalism and friendliness.  In the morning the breakfast hostess attendant - sweet hispanic lady and someone else who appeared to be a manager - was also very kind and professional.  She was a pretty short black woman wearing a polka dot shirt.  The room was clean and quiet.  The bed was very comfortable.  Your hotel was a nice experience on a pretty bad night.  Kudos to everyone -- especially the wonderful staff who I mentioned.MoreShow less</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>We ended up at this hotel because our flight from Phoenix to Boston had a missed connection in Houston.  It was muggy and hot that night and people were cranky!  I want to give kudos to our shuttle driver - mid 20s - 30 black man who was courteous and friendly.  He got a shuttle full of cranky travelers to various hotels.  He showed such kindness to an elderly non English speaking lady.  I don't know his name but the time was about 9-10 pm on Wednesday June 1 -- maybe you can pass comments on to his supervisor.  When we got to your hotel, Juan made us feel welcome and helped us get some necessities for our night as we had NO luggage.  Juan was wonderful and truly helped us feel at home and comfortable.  There were some guests at your hotel who were total jerks -- maybe they were cranky because their flights were cancelled but there is no need to take it out on the hotel staff.  My son, daughter and I all give Juan high marks for professionalism and friendliness.  In the morning the breakfast hostess attendant - sweet hispanic lady and someone else who appeared to be a manager - was also very kind and professional.  She was a pretty short black woman wearing a polka dot shirt.  The room was clean and quiet.  The bed was very comfortable.  Your hotel was a nice experience...We ended up at this hotel because our flight from Phoenix to Boston had a missed connection in Houston.  It was muggy and hot that night and people were cranky!  I want to give kudos to our shuttle driver - mid 20s - 30 black man who was courteous and friendly.  He got a shuttle full of cranky travelers to various hotels.  He showed such kindness to an elderly non English speaking lady.  I don't know his name but the time was about 9-10 pm on Wednesday June 1 -- maybe you can pass comments on to his supervisor.  When we got to your hotel, Juan made us feel welcome and helped us get some necessities for our night as we had NO luggage.  Juan was wonderful and truly helped us feel at home and comfortable.  There were some guests at your hotel who were total jerks -- maybe they were cranky because their flights were cancelled but there is no need to take it out on the hotel staff.  My son, daughter and I all give Juan high marks for professionalism and friendliness.  In the morning the breakfast hostess attendant - sweet hispanic lady and someone else who appeared to be a manager - was also very kind and professional.  She was a pretty short black woman wearing a polka dot shirt.  The room was clean and quiet.  The bed was very comfortable.  Your hotel was a nice experience on a pretty bad night.  Kudos to everyone -- especially the wonderful staff who I mentioned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r365511874-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365511874</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Very cheery</t>
+  </si>
+  <si>
+    <t>We're catastrophe adjusters.  We found this hotel because the others were booked.  We were headed out for dinner when we went by the lobby.  No need to go out they had plenty of wine, beer, soda and food. Everyone was happy and chatting. I am so glad we happened upon this place.  I only wish we had enough claims to stay here longer.  If you're in the area give it a try   We travel lots.  Last night we were at the drury inn.  We had holes in our sheets and mattress cover.  Thank you for being so wonderful to we folks that don't always want to be on the road but we help folks just like you made our day.  Thank you MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>We're catastrophe adjusters.  We found this hotel because the others were booked.  We were headed out for dinner when we went by the lobby.  No need to go out they had plenty of wine, beer, soda and food. Everyone was happy and chatting. I am so glad we happened upon this place.  I only wish we had enough claims to stay here longer.  If you're in the area give it a try   We travel lots.  Last night we were at the drury inn.  We had holes in our sheets and mattress cover.  Thank you for being so wonderful to we folks that don't always want to be on the road but we help folks just like you made our day.  Thank you More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r361885979-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -705,9 +1053,6 @@
     <t>RI Houston Airport has a good location if you have an early flight out as it is only ten minutes from the airport. To downtown it will take you at least half an hour (do not even try during rush hours) so if you plan to spend much time there forget this hotel. Judging on the furniture and the rooms this one is in need of a refurbishment because although the place is clean, it does look somewhat tired. Breakfast is great and you can get real plates and silverware. Overall quite happy with the exception of the bed which definitely needs replacement.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded April 7, 2016</t>
   </si>
   <si>
@@ -771,6 +1116,54 @@
     <t>We enjoy the Residence Inn brand and this was no exception.  The rooms are comfortable and the staff was extremely friendly.  In particular, General Manager Ms. Trammell and also the breakfast server Maria went out of their way.  Location was convenient for us, although there were few restaurants close by.  While the rooms were very clean, including a spotless bathroom, the hotel would benefit from an update.  The appliances were clean but very scuffed and scratched.  Carpet in the halls and stairs were threadbare.  We'll be back, but hope to see some updates.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r351544438-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351544438</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is really nice! Great staff, clean &amp; fresh rooms, quiet cozy place. Breakfast is good, rooms are A+. Very happy with the customer service &amp; good rooms last night! I love the popcorn in my room! Thank you!!!! Will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is really nice! Great staff, clean &amp; fresh rooms, quiet cozy place. Breakfast is good, rooms are A+. Very happy with the customer service &amp; good rooms last night! I love the popcorn in my room! Thank you!!!! Will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r350686259-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350686259</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>My "Go To" Hotel on the North End.</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence twice in the past few months.  The property is convenient to the airport and not too bad of a ride if you have business downtown.  The rooms are generous, the property very clean and the staff is awesome.  I am always greeted with a smile from everyone and they go out of their way to make my stay a great one.  Definitely plan to be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>senta c, Manager at Residence Inn Houston North, responded to this reviewResponded February 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence twice in the past few months.  The property is convenient to the airport and not too bad of a ride if you have business downtown.  The rooms are generous, the property very clean and the staff is awesome.  I am always greeted with a smile from everyone and they go out of their way to make my stay a great one.  Definitely plan to be back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r349977824-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1239,45 @@
     <t>I have received alot of great deals through hotwire.com but this by far has been the BEST hotel experience Ive ever had (*not knowing where I would be staying until AFTER I paid lol). The rooms were nice and spacious (king), airport shuttle, indoor pool &amp; hot tub, workout room (really small). The breakfast was delicious every morning and they even have a happy hour in the evening with REAL dinner (tacos/nachos) and drinks (alcoholic &amp; non-alcoholic)--not sure if they have it everyday but it was Monday when we stayed there. The customer service was great...they had everything available at the counter (toothpaste, etc). We didnt have to leave the hotel, except for lunch!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r319673386-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319673386</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Quick Overnight Layover</t>
+  </si>
+  <si>
+    <t>Shuttle came quick when i landed at the airport.  Checkin was quick and efficient.Room was a little dated and the AC a little noisy, but everything was clean and the room was large.  Bed was nice and comfortable.  Morning breakfast started really early and was able to catch the free shuttle back as well to airport.  Would recommend for a layover!Staff was friendly</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r318930023-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318930023</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Two Night Stay for Business Met My Expectations</t>
+  </si>
+  <si>
+    <t>Stayed at this property because of proximity to IAH and desire for space to prepare for business meeting with coworker. The good: clean property, friendly and helpful staff, good breakfast buffet with plenty of selection, comfortable, well appointed and clean room, convenient airport shuttle with quality Sprinter van and friendly drivers. The not-so-good: not much in the immediate neighborhood, so if you don't have a car you're somewhat marooned. In reality, somewhat remote from IAH, perhaps 15 minutes hotel to terminal. The A/C unit was a bit noisy and the temperature seemed to fluctuate more than usual. The bedroom window was fairly dirty on the outside. Bottom line: met or exceeded standards for a RI. People make the difference and all were great. I'll stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this property because of proximity to IAH and desire for space to prepare for business meeting with coworker. The good: clean property, friendly and helpful staff, good breakfast buffet with plenty of selection, comfortable, well appointed and clean room, convenient airport shuttle with quality Sprinter van and friendly drivers. The not-so-good: not much in the immediate neighborhood, so if you don't have a car you're somewhat marooned. In reality, somewhat remote from IAH, perhaps 15 minutes hotel to terminal. The A/C unit was a bit noisy and the temperature seemed to fluctuate more than usual. The bedroom window was fairly dirty on the outside. Bottom line: met or exceeded standards for a RI. People make the difference and all were great. I'll stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r306906343-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -859,9 +1291,6 @@
   </si>
   <si>
     <t>Room was very clean, although you could tell it was a bit worn.  The lobby area was very nice and more modern.The exercise room was super small and contained two treadmills and an elliptical.  I did not try out the indoor pool since I forgot my bathing suit.The staff was exceptionally nice and friendly.  I really think they made this an above average hotel.The breakfast was wonderful with a mix of healthy (non-sweetened cereals, boiled eggs) and more junky stuff (waffles, pork, eggs, pastries).  I spent three nights here and would stay here again.</t>
-  </si>
-  <si>
-    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r306602121-Residence_Inn_Houston_North-Houston_Texas.html</t>
@@ -910,6 +1339,56 @@
     <t>I'm in Houston for over a month on business and I only made it 2 nights here before switching to a different hotel. The rooms look and smell old and musty. All my dishes were dirty when I arrived and the outside of the windows were covered in old spiderwebs. There has been noise from various things early every morning (construction or something outside, housekeeping vacuuming the hallways, etc) and I have yet to get a good night's sleep. It's far enough away from the airport that I can't hear airplane noise, but it's also really far away from everything else. There is a Walmart about 10 minutes away but that's about it. Expect to drive a little bit for food, coffee, and everything else.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r291593932-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291593932</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for a night before a flight</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a night before my parents were going to fly from IAH thru Hotwire. It is very close to the Hardy Toll way and I got lost once on the way. The hotel receptionist was very friendly and had allocated a King Bed suite. However, it thankfully came with a sofa bed that I could use. Sofa beds by definition are not the most comfortable, so I did have a rather restless night, but my parents said that their bed was very nice. There is a small kitchenette with stoves, fridge, sink, microwave and a small dishwasher. The bathroom was a good size. The breakfast was the normal hot breakfast. My only complaint is the way the two doors are at the front open in opposite ways and so it is a pain to drag your luggage in a cart thru the dual doors. The hotel management should seriously consider changing this. Other than that this is a good hotel to stay at. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a night before my parents were going to fly from IAH thru Hotwire. It is very close to the Hardy Toll way and I got lost once on the way. The hotel receptionist was very friendly and had allocated a King Bed suite. However, it thankfully came with a sofa bed that I could use. Sofa beds by definition are not the most comfortable, so I did have a rather restless night, but my parents said that their bed was very nice. There is a small kitchenette with stoves, fridge, sink, microwave and a small dishwasher. The bathroom was a good size. The breakfast was the normal hot breakfast. My only complaint is the way the two doors are at the front open in opposite ways and so it is a pain to drag your luggage in a cart thru the dual doors. The hotel management should seriously consider changing this. Other than that this is a good hotel to stay at. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r284155110-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284155110</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Would not go back</t>
+  </si>
+  <si>
+    <t>Stayed for over a month on a business trip and the area and the hotel are both places I woudl not want to go back to. Echoing the other reviewers, the decor was a bit worn and stained and the worse aspect of the hotel was its very unreliable "complimentaty" shuttle service. Perhaps they are better off saying they dont offer one, as its very very disappointing. Never on time ( I was late to client meetings by relying on it initially and always called a cab thereafter) and very often while picking me up from somewhere it would go by the airport picking up people before going back to the hotel- this is not a problem except I was not informed! I assumed we are going to the hotel and went to airport and I reached the hotel about 1 hour later! This was unacceptable. The shower in the hotel was so weak that they had to send out apology letters for it during my stay! Needless to say, it wasnt fixed the 1 month I stayed there. The (free) breakfast lacked variety- same old stuff everyday and its choice of fresh fruit was limited to max 2-3 options. 2 options of juices.
+The overall area is deserrted with no public transport options and I was recommended to avoid the area all together as its unsafe. One time I visited the nearby Walmart, I saw people getting arrested and...Stayed for over a month on a business trip and the area and the hotel are both places I woudl not want to go back to. Echoing the other reviewers, the decor was a bit worn and stained and the worse aspect of the hotel was its very unreliable "complimentaty" shuttle service. Perhaps they are better off saying they dont offer one, as its very very disappointing. Never on time ( I was late to client meetings by relying on it initially and always called a cab thereafter) and very often while picking me up from somewhere it would go by the airport picking up people before going back to the hotel- this is not a problem except I was not informed! I assumed we are going to the hotel and went to airport and I reached the hotel about 1 hour later! This was unacceptable. The shower in the hotel was so weak that they had to send out apology letters for it during my stay! Needless to say, it wasnt fixed the 1 month I stayed there. The (free) breakfast lacked variety- same old stuff everyday and its choice of fresh fruit was limited to max 2-3 options. 2 options of juices.The overall area is deserrted with no public transport options and I was recommended to avoid the area all together as its unsafe. One time I visited the nearby Walmart, I saw people getting arrested and avoided it thereafter.Another very disappointing aspect of this hotel was its AWFUL housekeeping service. My first day, my room was not even serviced when I was away at work. During the first TWO WEEKS, neither my sheets OR my towels were changed even once. Finally I complained about this to the GM and they were chnaged the next day. Unless enquired or reminded the room would not be serviced and even when it was routine checks like garbage and towels were always forgotten. It was a very disappointing to not have even these basic checks in place. While I would not recommend either this area or this hotel to anyone, I must mention MOST of the staff was always smiling and helpful. They helped booked taxis, wake up calls and were always smiling and pleasant and helpful. Especially Martijn and Karla at the reception deserve a special mention for being always helpful- the hotel's shortcomings are never their fault. On the same note, the shuttle drivers were 100% unreliable, always late (soemtimes by over an hour) and always rude. Just another of the many reasons to avoid this place all together.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for over a month on a business trip and the area and the hotel are both places I woudl not want to go back to. Echoing the other reviewers, the decor was a bit worn and stained and the worse aspect of the hotel was its very unreliable "complimentaty" shuttle service. Perhaps they are better off saying they dont offer one, as its very very disappointing. Never on time ( I was late to client meetings by relying on it initially and always called a cab thereafter) and very often while picking me up from somewhere it would go by the airport picking up people before going back to the hotel- this is not a problem except I was not informed! I assumed we are going to the hotel and went to airport and I reached the hotel about 1 hour later! This was unacceptable. The shower in the hotel was so weak that they had to send out apology letters for it during my stay! Needless to say, it wasnt fixed the 1 month I stayed there. The (free) breakfast lacked variety- same old stuff everyday and its choice of fresh fruit was limited to max 2-3 options. 2 options of juices.
+The overall area is deserrted with no public transport options and I was recommended to avoid the area all together as its unsafe. One time I visited the nearby Walmart, I saw people getting arrested and...Stayed for over a month on a business trip and the area and the hotel are both places I woudl not want to go back to. Echoing the other reviewers, the decor was a bit worn and stained and the worse aspect of the hotel was its very unreliable "complimentaty" shuttle service. Perhaps they are better off saying they dont offer one, as its very very disappointing. Never on time ( I was late to client meetings by relying on it initially and always called a cab thereafter) and very often while picking me up from somewhere it would go by the airport picking up people before going back to the hotel- this is not a problem except I was not informed! I assumed we are going to the hotel and went to airport and I reached the hotel about 1 hour later! This was unacceptable. The shower in the hotel was so weak that they had to send out apology letters for it during my stay! Needless to say, it wasnt fixed the 1 month I stayed there. The (free) breakfast lacked variety- same old stuff everyday and its choice of fresh fruit was limited to max 2-3 options. 2 options of juices.The overall area is deserrted with no public transport options and I was recommended to avoid the area all together as its unsafe. One time I visited the nearby Walmart, I saw people getting arrested and avoided it thereafter.Another very disappointing aspect of this hotel was its AWFUL housekeeping service. My first day, my room was not even serviced when I was away at work. During the first TWO WEEKS, neither my sheets OR my towels were changed even once. Finally I complained about this to the GM and they were chnaged the next day. Unless enquired or reminded the room would not be serviced and even when it was routine checks like garbage and towels were always forgotten. It was a very disappointing to not have even these basic checks in place. While I would not recommend either this area or this hotel to anyone, I must mention MOST of the staff was always smiling and helpful. They helped booked taxis, wake up calls and were always smiling and pleasant and helpful. Especially Martijn and Karla at the reception deserve a special mention for being always helpful- the hotel's shortcomings are never their fault. On the same note, the shuttle drivers were 100% unreliable, always late (soemtimes by over an hour) and always rude. Just another of the many reasons to avoid this place all together.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r278118772-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1464,45 @@
     <t>After a late night cancellation at IAH, I booked a night at this Residence Inn.  The rooms were spacious but a bit banged up and worn.  A few stains on the carpets and the shower was very dingy.  However....the staff was wonderful!.  Very friendly, pleasant and helpful.  They also booked a taxi ride for me for early the next morning.  I'd say the service definitely outweighed the worn room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r266089822-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266089822</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Good value, clean, business park area</t>
+  </si>
+  <si>
+    <t>This is a good value if you aren't interested in nearby restaurants, shopping, etc. Business, industrial park atmosphere in a rather uninteresting area of Houston. Not very easy to get to off the Beltway 8. However, the hotel is clean, quiet, comfortable and very reasonably priced. Hot breakfast is pretty good, plenty of close by parking, easy, friendly check-in service. One problem, which is common in hotels, is the poor quality of light for reading. This is a business suite, it is not Las Vegas, or Disneyland. Most guests have business to do in the area and they need to be able to see and read. Please put in good reading lamps on the desk, or by the sofa. Full kitchen is a plus, the mattress was old but still softer than most newer hotel beds. Air conditioner blows right on the bed, which is not pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good value if you aren't interested in nearby restaurants, shopping, etc. Business, industrial park atmosphere in a rather uninteresting area of Houston. Not very easy to get to off the Beltway 8. However, the hotel is clean, quiet, comfortable and very reasonably priced. Hot breakfast is pretty good, plenty of close by parking, easy, friendly check-in service. One problem, which is common in hotels, is the poor quality of light for reading. This is a business suite, it is not Las Vegas, or Disneyland. Most guests have business to do in the area and they need to be able to see and read. Please put in good reading lamps on the desk, or by the sofa. Full kitchen is a plus, the mattress was old but still softer than most newer hotel beds. Air conditioner blows right on the bed, which is not pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r262075217-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262075217</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Not much in the area, rooms are in need of an update, breakfast was OK, limited guest interaction, rate was very high for limited appeal, hotel could use an update to the bedding.  I had to initiate a good morning to the staff while appearing to interrupt their conversation.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Not much in the area, rooms are in need of an update, breakfast was OK, limited guest interaction, rate was very high for limited appeal, hotel could use an update to the bedding.  I had to initiate a good morning to the staff while appearing to interrupt their conversation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r261645503-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1027,9 +1545,6 @@
     <t>Hotel is located minutes from IAH and easy to get to.  Front desk staff is friendly and helpful.  Morning breakfast was excellent.  Pool is open 24 hrs a day.  Many restaurants nearby if needed. Easy to get downtownMoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Hotel is located minutes from IAH and easy to get to.  Front desk staff is friendly and helpful.  Morning breakfast was excellent.  Pool is open 24 hrs a day.  Many restaurants nearby if needed. Easy to get downtownMore</t>
   </si>
   <si>
@@ -1049,6 +1564,57 @@
   </si>
   <si>
     <t>I was in town for an interview with United Airlines. I called after I landed at the airport &amp; a FREE shuttle came to get me &amp; bring me to the hotel. The hotel is about 9 miles away. There is also a local FREE shuttle that will take you around town &amp; back to the airport! Awesome! The front desk staff, Carla (I believe her name was) especially, very friendly, efficient, awesome! It's wonderful to get great customer service. This hotel exceeded my expectations.  I was also able to attend the mix. It was dessert day; the cheesecake was delicious, it's also one of my favorite desserts, so another plus. The staff is incredible! Thank you! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r251520624-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251520624</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Great front desk service</t>
+  </si>
+  <si>
+    <t>The front desk staff is very accommodating and gives all the local establishments to visit with directions. Also the rooms are clean and updated for the business traveler with plenty of outlets and a refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>The front desk staff is very accommodating and gives all the local establishments to visit with directions. Also the rooms are clean and updated for the business traveler with plenty of outlets and a refrigerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r249749881-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249749881</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>The staff are fantastic!</t>
+  </si>
+  <si>
+    <t>We just returned from Houston where we were flying through to and from Roatan.  We had an overnight in each direction and we picked the Residence Inn for several reasons.  It is close to the airport, we could get large rooms, it has a free shuttle to and from the airport and it has a free breakfast.  We were so impressed with the staff from the moment we arrived.  We arrived just before supper so they called a shuttle to take us for dinner.  We wanted BBQ (can't go to Texas without BBQ).  We had picked a restaurant close to the hotel but the shuttle driver (Michael) insisted on taking us to a better restaurant, even though it was further for him.  He picked us up when we were ready to return and he went out of his way to make us feel welcome!
+There is a "social" Monday-Wed. that has food and drinks so you could stay there for dinner if you want.  The breakfast was great with hot and cold options every morning.  Our boys enjoyed the pool and hot tub.
+I appreciated the computer and printer in the lobby so we could check in and print boarding passes before leaving for the airport. 
+The beds are soft...very soft!  They are a bit too soft for my liking but there were several pillow options.  We also liked having 2 bathrooms and 3 TVs in our 2 bedroom suite....We just returned from Houston where we were flying through to and from Roatan.  We had an overnight in each direction and we picked the Residence Inn for several reasons.  It is close to the airport, we could get large rooms, it has a free shuttle to and from the airport and it has a free breakfast.  We were so impressed with the staff from the moment we arrived.  We arrived just before supper so they called a shuttle to take us for dinner.  We wanted BBQ (can't go to Texas without BBQ).  We had picked a restaurant close to the hotel but the shuttle driver (Michael) insisted on taking us to a better restaurant, even though it was further for him.  He picked us up when we were ready to return and he went out of his way to make us feel welcome!There is a "social" Monday-Wed. that has food and drinks so you could stay there for dinner if you want.  The breakfast was great with hot and cold options every morning.  Our boys enjoyed the pool and hot tub.I appreciated the computer and printer in the lobby so we could check in and print boarding passes before leaving for the airport. The beds are soft...very soft!  They are a bit too soft for my liking but there were several pillow options.  We also liked having 2 bathrooms and 3 TVs in our 2 bedroom suite. What really impressed us was on the way home, our flight was cancelled due to weather.  We had already checked out but called the hotel and they were able to give the same rate we had the night before which was much cheaper because we had booked the room so far in advance.  We ended up stuck in Houston for 3 extra nights and they went out of their way to make the unexpected stay a pleasure.  I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just returned from Houston where we were flying through to and from Roatan.  We had an overnight in each direction and we picked the Residence Inn for several reasons.  It is close to the airport, we could get large rooms, it has a free shuttle to and from the airport and it has a free breakfast.  We were so impressed with the staff from the moment we arrived.  We arrived just before supper so they called a shuttle to take us for dinner.  We wanted BBQ (can't go to Texas without BBQ).  We had picked a restaurant close to the hotel but the shuttle driver (Michael) insisted on taking us to a better restaurant, even though it was further for him.  He picked us up when we were ready to return and he went out of his way to make us feel welcome!
+There is a "social" Monday-Wed. that has food and drinks so you could stay there for dinner if you want.  The breakfast was great with hot and cold options every morning.  Our boys enjoyed the pool and hot tub.
+I appreciated the computer and printer in the lobby so we could check in and print boarding passes before leaving for the airport. 
+The beds are soft...very soft!  They are a bit too soft for my liking but there were several pillow options.  We also liked having 2 bathrooms and 3 TVs in our 2 bedroom suite....We just returned from Houston where we were flying through to and from Roatan.  We had an overnight in each direction and we picked the Residence Inn for several reasons.  It is close to the airport, we could get large rooms, it has a free shuttle to and from the airport and it has a free breakfast.  We were so impressed with the staff from the moment we arrived.  We arrived just before supper so they called a shuttle to take us for dinner.  We wanted BBQ (can't go to Texas without BBQ).  We had picked a restaurant close to the hotel but the shuttle driver (Michael) insisted on taking us to a better restaurant, even though it was further for him.  He picked us up when we were ready to return and he went out of his way to make us feel welcome!There is a "social" Monday-Wed. that has food and drinks so you could stay there for dinner if you want.  The breakfast was great with hot and cold options every morning.  Our boys enjoyed the pool and hot tub.I appreciated the computer and printer in the lobby so we could check in and print boarding passes before leaving for the airport. The beds are soft...very soft!  They are a bit too soft for my liking but there were several pillow options.  We also liked having 2 bathrooms and 3 TVs in our 2 bedroom suite. What really impressed us was on the way home, our flight was cancelled due to weather.  We had already checked out but called the hotel and they were able to give the same rate we had the night before which was much cheaper because we had booked the room so far in advance.  We ended up stuck in Houston for 3 extra nights and they went out of their way to make the unexpected stay a pleasure.  I would definitely stay there again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r247559173-Residence_Inn_Houston_North-Houston_Texas.html</t>
@@ -1074,12 +1640,6 @@
 I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that...We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:Location:If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  Cleanliness:This is probably the most important area for me, and the staff at this hotel has this down.  The rooms were spotless and the facilities were always clean.  I would give them 5 STARS in this area.Service:We didn't need much assistance once we checked in, but the staff at the front desk and the housekeeping staff always had smiles on there faces, which is not that common these days;)  Check in was a breeze, and I even checked in about 30 minutes early.  5 STARS!Facilities:I've seen reviews stating that this hotel is "dated", and I believe that is the only reason that this hotel doesn't have a 4 or higher rating.  The hotel is in good repair and is clean, as mentioned earlier, but it does appear to be a bit older.  Also, we stayed on the 1st floor, and there was always (we stayed here 2 nights) the VERY STRONG smell of someone cooking something in our hallway, which annoyed my wife (I thought is smelled pretty good).One thing that stood out was this is the first place I've stayed that has the swimming pool and gym open 24 HOURS!  That's great, because we don't usually get back to the hotel until after most places shut down these areas.Breakfast:This is one of the reasons we chose this hotel.  The full breakfast bar is great for anyone, but when you're traveling with kids, complimentary hot breakfast is a huge perk!  And this place knows how to put out a spread.  The only thing that was missing was biscuits and gravy, but they had plenty of other choices to make up for it.  The down side here was that the juice machine was broken all both mornings of our trip.All in all, this is a good place to stay, and if I need to stay near the airport I will be back.  I recommend this hotel to anyone staying in the area.MoreShow less</t>
   </si>
   <si>
-    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded February 3, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 3, 2015</t>
-  </si>
-  <si>
     <t>We have a large family, so finding hotels is a challenge at times.  On this particular trip, we took three of our kids, ages 13 and 14, for a trip to the Advocare Texas Bowl.  We booked a 2 bedroom, 2 queen suite, and it was good for the 5 of us.  Here is a breakdown of our stay:
 Location:
 If you're flying in to Houston for a weekend, this is a great spot (obviously, since Airport is in the name).  If you're a small town guy like myself, and you aren't accustomed to BIG city driving, maybe not so much!  We were able to get around ok with the help of the Navigation system in our vehicle, but it is about a 30 minute drive to NRG Stadium and the Galleria Mall.  
@@ -1127,6 +1687,51 @@
     <t>We have stayed in many hotels at IAH, this is definitely the very best.They have thought of everything, free shuttle to airport and local restaurants, fresh cookies, evening reception, wonderful hot breakfast, free wifi, printer to run off your booking pass, etc.Very friendly helpful staff, clean quite rooms, lovely pool area.We will return whenever we are in the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r242838285-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242838285</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Average Residence Inn</t>
+  </si>
+  <si>
+    <t>Nice motel 20 minutes from the airport.  Shuttle goes every hour on the hour so plan ahead.  Good breakfast, but it is located on the beltway, so there is nothing else around but a Kwikmart and a Jack in the Box for other meals unless you shuttle somewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice motel 20 minutes from the airport.  Shuttle goes every hour on the hour so plan ahead.  Good breakfast, but it is located on the beltway, so there is nothing else around but a Kwikmart and a Jack in the Box for other meals unless you shuttle somewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r228372828-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228372828</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Age is showing, but property remains clean and comfortable</t>
+  </si>
+  <si>
+    <t>The staff was very friendly, across the board from front desk to maintenance.  The hardworking ladies taking care of breakfasts and evening snacks were incredible, hustling non-stop with a smile on their face and always taking time to greet the guests.The room itself is fairly standard Residence Inn fare, but signs of age are evident in the carpeting, walls, and bathroom.  The A/C system made a constant rumbling noise.  The elevator was slow and very noisy.Sound-proofing between floors is non-existent.  I could hear every step of the person above me, when their phone rings, and when they close drawers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very friendly, across the board from front desk to maintenance.  The hardworking ladies taking care of breakfasts and evening snacks were incredible, hustling non-stop with a smile on their face and always taking time to greet the guests.The room itself is fairly standard Residence Inn fare, but signs of age are evident in the carpeting, walls, and bathroom.  The A/C system made a constant rumbling noise.  The elevator was slow and very noisy.Sound-proofing between floors is non-existent.  I could hear every step of the person above me, when their phone rings, and when they close drawers.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r212099791-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1145,12 +1750,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>martha h, General Manager at Residence Inn Houston North, responded to this reviewResponded September 14, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 14, 2014</t>
-  </si>
-  <si>
     <t>We have stayed here a couple of times, its a very nice property with an excellent front desk staff. Rooms &amp; bathrooms are fresh, clean and comfortable. The hotel is close to the intercontinental airport and has plenty of free parking. They also have a shuttle to / from the airport. Special thanks to the front desk staff, Carla ( always smiling ! ),  Senta, and Martin for making us feel so comfortable. And Maria for fixing the breakfast. I look forward to staying at this hotel again and also recommend it to others who wish to be near IAH but not quite at the airport.More</t>
   </si>
   <si>
@@ -1205,6 +1804,48 @@
     <t>The staff was very friendly and the room immaculately clean. I do wish these properties would upgrade the market place area, some healthier options for food and maybe some wine??? It was fine for a one or two night stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r206741902-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206741902</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Rude General Manager and Poor House Keeping</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite customer and have stayed in multiple Marriott Residence properties in USA and other Marriott Properties in US, Asia and other locations and generally had great time with wonderful experiences however this time it was probably the worst  ever experience I have had. I booked my stay for two weeks in this hotel till end May and for the last couple of days the room was not cleaned well, trash not taken out, body cream not replenished etc. . I brought this to the notice of the front office executive who was empathetic and  asked me to speak to the General Manager of the Property who is a Lady whose name I Cannot recollect and to my disappointment I found her to be rude and aggressive when I spoke to her. This is my first time I have such a bad experience and did not expect the General Manager of the property talking this way to a customer. I will never stay in this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I am a Platinum Elite customer and have stayed in multiple Marriott Residence properties in USA and other Marriott Properties in US, Asia and other locations and generally had great time with wonderful experiences however this time it was probably the worst  ever experience I have had. I booked my stay for two weeks in this hotel till end May and for the last couple of days the room was not cleaned well, trash not taken out, body cream not replenished etc. . I brought this to the notice of the front office executive who was empathetic and  asked me to speak to the General Manager of the Property who is a Lady whose name I Cannot recollect and to my disappointment I found her to be rude and aggressive when I spoke to her. This is my first time I have such a bad experience and did not expect the General Manager of the property talking this way to a customer. I will never stay in this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r195959570-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195959570</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>My husband and I booked via hotwire so we didn't know what we were getting for 75$  and we were a little worried. On our arrival at 8pm on a Sunday night we were greeted by friendly staff who quickly checked us in. We went to our 3rd floor room and were pleasantly surprised with a very clean well furnished 3 bedroom apartment. The kitchen was stocked with a few dishes and anything we could have wanted as far as dishes go. Spacious living room with a tv and another TV in the bedroom. We heard our neighbors when we walked down the hallway, but as soon as we entered the room all was quiet. Great place! Very happy with our stay at the residence inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My husband and I booked via hotwire so we didn't know what we were getting for 75$  and we were a little worried. On our arrival at 8pm on a Sunday night we were greeted by friendly staff who quickly checked us in. We went to our 3rd floor room and were pleasantly surprised with a very clean well furnished 3 bedroom apartment. The kitchen was stocked with a few dishes and anything we could have wanted as far as dishes go. Spacious living room with a tv and another TV in the bedroom. We heard our neighbors when we walked down the hallway, but as soon as we entered the room all was quiet. Great place! Very happy with our stay at the residence inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r194741391-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1259,9 +1900,6 @@
     <t>01/28/2014</t>
   </si>
   <si>
-    <t>Average Residence Inn</t>
-  </si>
-  <si>
     <t>It wasn't bad, it wasn't great.  The property needs an upgrade - they've done the lobby and kitchens, but forgot the rest of the hotel.  Staff was notable exception and all were wonderful! Be warned there are really not any restaurants other than fast food in the immediate area.MoreShow less</t>
   </si>
   <si>
@@ -1274,6 +1912,42 @@
     <t>It wasn't bad, it wasn't great.  The property needs an upgrade - they've done the lobby and kitchens, but forgot the rest of the hotel.  Staff was notable exception and all were wonderful! Be warned there are really not any restaurants other than fast food in the immediate area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r183604357-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183604357</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great servce</t>
+  </si>
+  <si>
+    <t>We spent one night.  Limited restaurants in the area, but the shuttle driver was great and offered to help us out with getting around.  Beds were soft to sit on but comfortable once stretched out.  The staff was all amazingly friendly and helpful.  They were all really johnny on the spot with any request and extremely polite.  The breakfast in the morning was very good and quite extensive with eggs, sausage, bacon, waffles along with pasteries and cereals.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r179831010-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179831010</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Terrible beds</t>
+  </si>
+  <si>
+    <t>I wish I can give this hotel 3 stars because overall everything was fine but a comfortable bed is one of the most important thing (if not the most important) for hotel stays. The bed was awfully springy and your body sinks down into very uncomfortable positions. Also it's queen size and too small for 2 people. We told the front desk about this and they were very kind and offered to change us to another room. We checked the other room and it's the same type of bad mattress so we just stayed in the original room. We were there for 2 nights.Everything else as to amenities is fine. The suite was decent size, with a good size refrigerator, dish washer, dishes and utensils, coffee makers, pots &amp; pans, etc. They even do your grocery shopping at your request. Bathroom was adequate. Paul Mitchell bath products. Bedroom small but lots of electric plugs in the living room.They don't have a business center, only 2 VERY OLD little computers in the lobby.The breakfast looked good and in evening they served free beers and pasta. There is a grill for people here for long stays. Didn't check the gym but an ok not very big swimming pool. Staff was very friendly and helpful. The hotel is actually fine overall but I can't recommend it because the beds are just bad and you won't get a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wish I can give this hotel 3 stars because overall everything was fine but a comfortable bed is one of the most important thing (if not the most important) for hotel stays. The bed was awfully springy and your body sinks down into very uncomfortable positions. Also it's queen size and too small for 2 people. We told the front desk about this and they were very kind and offered to change us to another room. We checked the other room and it's the same type of bad mattress so we just stayed in the original room. We were there for 2 nights.Everything else as to amenities is fine. The suite was decent size, with a good size refrigerator, dish washer, dishes and utensils, coffee makers, pots &amp; pans, etc. They even do your grocery shopping at your request. Bathroom was adequate. Paul Mitchell bath products. Bedroom small but lots of electric plugs in the living room.They don't have a business center, only 2 VERY OLD little computers in the lobby.The breakfast looked good and in evening they served free beers and pasta. There is a grill for people here for long stays. Didn't check the gym but an ok not very big swimming pool. Staff was very friendly and helpful. The hotel is actually fine overall but I can't recommend it because the beds are just bad and you won't get a good night's sleep.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r157259986-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +2011,42 @@
     <t>My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check...My son and I stayed at this hotel during a weekend visit to Houston. Our suite was very stylish, clean and comfortable. The staff was friendly and very helpful; and the hotel offered a very generous breakfast with a  varied choice of breakfast foods. When I checked in I was given a military rate which I thought was good @ 89.00 per night for the suite w/ a King bed and sofa sleeper (very comfortable also). On Saturday night I called the front desk and requested an extension of my stay by one more night and was told that the room was available and that the extension had been noted, with no mention of an increase in rate. However, on Sunday morning around 11:30 a.m. (check out time is @ 12:00 p.m.) housekeeping  knocked on the door and ask if we were checking out. I told her that we had gotten the ok "last night for an extension of one more night". The first maid said ok and left only to be followed by another lady from housekeeping asking the same question a few minutes later. After I told the second maid  that we had extended our stay, she leaves and we receive a call from the front desk telling us the rates on our suite were going up on our one night extension from 89.00 to 199.00 dollars. Needless to say, we had to pack our bags and check out. At check out we were told "thank you for staying with us and we look forward to seeing you again". I feel that our treatment by  management was very shabby;  I was offended by the whole ordeal and have no intension of ever staying at the chain again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r150131037-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150131037</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Travelers with Pets Beware!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Booked through Expedia as we usually do....re-assured pets welcomed.  Called hotel directly confirmed pets allowed at no charge....thought I had it covered.   $150.00 charge at departure, stayed at this hotel 8 hours with our two small dogs.   Almost twice the room charge.  Manager budged to $75.00...his only interest was being able to reprimand the employee who told me no fee would be charged.   He wouldn't stand behind his staff member's statement.  Was only interested in who said it so he could "Reprimand" them.  He kept saying it is on our website.  I just tried to find this hotel's website and it took me almost a half an hour to get to their site.  Good way to cover.  My opinion is if they accept reservations through Expedia, they should be sure this information is posted on Expedia's website.   Not cop out and say they have nothing to do with them. While the hotel fit our needs, never in my wildest dreams did I think there could be a pet charge this high for an overnight stay.   The manager said they have nothing to do with Expedia, which does not show a pet fee either.  Corporate Marriott would not budge either, stood behind their manager, unlike him  NOT standing behind his employee.   We always call the hotel to check pet policy, even if we book online, guess that isn't even a safe bet!! So we are crossing this location off our travel...Booked through Expedia as we usually do....re-assured pets welcomed.  Called hotel directly confirmed pets allowed at no charge....thought I had it covered.   $150.00 charge at departure, stayed at this hotel 8 hours with our two small dogs.   Almost twice the room charge.  Manager budged to $75.00...his only interest was being able to reprimand the employee who told me no fee would be charged.   He wouldn't stand behind his staff member's statement.  Was only interested in who said it so he could "Reprimand" them.  He kept saying it is on our website.  I just tried to find this hotel's website and it took me almost a half an hour to get to their site.  Good way to cover.  My opinion is if they accept reservations through Expedia, they should be sure this information is posted on Expedia's website.   Not cop out and say they have nothing to do with them. While the hotel fit our needs, never in my wildest dreams did I think there could be a pet charge this high for an overnight stay.   The manager said they have nothing to do with Expedia, which does not show a pet fee either.  Corporate Marriott would not budge either, stood behind their manager, unlike him  NOT standing behind his employee.   We always call the hotel to check pet policy, even if we book online, guess that isn't even a safe bet!! So we are crossing this location off our travel plans in the future.   Our dogs are family and even though Marriott claims to understand that...they take a HUGE dip into your wallet.  NEVER , NEVER AGAIN!MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked through Expedia as we usually do....re-assured pets welcomed.  Called hotel directly confirmed pets allowed at no charge....thought I had it covered.   $150.00 charge at departure, stayed at this hotel 8 hours with our two small dogs.   Almost twice the room charge.  Manager budged to $75.00...his only interest was being able to reprimand the employee who told me no fee would be charged.   He wouldn't stand behind his staff member's statement.  Was only interested in who said it so he could "Reprimand" them.  He kept saying it is on our website.  I just tried to find this hotel's website and it took me almost a half an hour to get to their site.  Good way to cover.  My opinion is if they accept reservations through Expedia, they should be sure this information is posted on Expedia's website.   Not cop out and say they have nothing to do with them. While the hotel fit our needs, never in my wildest dreams did I think there could be a pet charge this high for an overnight stay.   The manager said they have nothing to do with Expedia, which does not show a pet fee either.  Corporate Marriott would not budge either, stood behind their manager, unlike him  NOT standing behind his employee.   We always call the hotel to check pet policy, even if we book online, guess that isn't even a safe bet!! So we are crossing this location off our travel...Booked through Expedia as we usually do....re-assured pets welcomed.  Called hotel directly confirmed pets allowed at no charge....thought I had it covered.   $150.00 charge at departure, stayed at this hotel 8 hours with our two small dogs.   Almost twice the room charge.  Manager budged to $75.00...his only interest was being able to reprimand the employee who told me no fee would be charged.   He wouldn't stand behind his staff member's statement.  Was only interested in who said it so he could "Reprimand" them.  He kept saying it is on our website.  I just tried to find this hotel's website and it took me almost a half an hour to get to their site.  Good way to cover.  My opinion is if they accept reservations through Expedia, they should be sure this information is posted on Expedia's website.   Not cop out and say they have nothing to do with them. While the hotel fit our needs, never in my wildest dreams did I think there could be a pet charge this high for an overnight stay.   The manager said they have nothing to do with Expedia, which does not show a pet fee either.  Corporate Marriott would not budge either, stood behind their manager, unlike him  NOT standing behind his employee.   We always call the hotel to check pet policy, even if we book online, guess that isn't even a safe bet!! So we are crossing this location off our travel plans in the future.   Our dogs are family and even though Marriott claims to understand that...they take a HUGE dip into your wallet.  NEVER , NEVER AGAIN!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r149397425-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149397425</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Clean, friendly, quiet, basic accommodations</t>
+  </si>
+  <si>
+    <t>While on a business trip, I spent four nights here.  Originally tempted by a suprisingly low rate ($79 a night), I was initially concerned when I read some of the negative reviews here.  All in all I was very pleased.The rooms are your basic Residence Inn quality.  More suites than rooms.  The staff was friendly and accommodating.  Indeed, when I initially checked in I wanted to extend my stay by one night.  Doing so online lost my initial low-cost rate.  But the front desk staff kept that rate in tact, even applied a weekend rate to the final night.  Two other comments.  First, with all the construction going on, it's easy to miss the Residence Inn.  Look for it's Marriott sister--a Courtyard--right next door.  Second, there is very little in the way of worthwhile eateries nearby.  Ask the desk staff for a map of local places to eat in the Greenspoint area.  Otherwise, you might never find them out.MoreShow less</t>
+  </si>
+  <si>
+    <t>While on a business trip, I spent four nights here.  Originally tempted by a suprisingly low rate ($79 a night), I was initially concerned when I read some of the negative reviews here.  All in all I was very pleased.The rooms are your basic Residence Inn quality.  More suites than rooms.  The staff was friendly and accommodating.  Indeed, when I initially checked in I wanted to extend my stay by one night.  Doing so online lost my initial low-cost rate.  But the front desk staff kept that rate in tact, even applied a weekend rate to the final night.  Two other comments.  First, with all the construction going on, it's easy to miss the Residence Inn.  Look for it's Marriott sister--a Courtyard--right next door.  Second, there is very little in the way of worthwhile eateries nearby.  Ask the desk staff for a map of local places to eat in the Greenspoint area.  Otherwise, you might never find them out.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r147408612-Residence_Inn_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +2102,58 @@
   </si>
   <si>
     <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r128091268-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128091268</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>Very nice place with a good service from staffs</t>
+  </si>
+  <si>
+    <t>I have stayed here for around 6 months last year (Jan'11 - Jul'11) for a business purpose. From the beginning, I already love the place. Staffs has good service, and very friendly. The receptionists, Mr Abraham Varghese and Samantha are one of the best and always gave us warm greeting and such a hospitality that I will always felt this place as a home. There are also the manager lady, other receptionist lady, night receptionist guy, and the lady who always there preparing breakfast, sorry I forgot their names its been almost a year ago, but they're all be very friendly and hospitable. Always there to help you. 
+Stayed here due to company training program and the place is just couple blocks away. From the day 1, I was issued Marriott Rewards card. When check out I got Platinum status \:D/. I have since using it for free nights on Marriott hotels around the world.
+Pros;
+- Room/suit is big. We stayed in a 1 bed room suite. Fridge is big, microwave and kitchenette stuff is complete. Dishwasher is there. Everything is almost perfect. 2 TVs, 1 in living room and 1 in bedroom. You got iron and table, decent bath room which hot water always working. They clean your room everyday.
+- Nice Patio off the lobby. Always came here with friends and have nice shisha time.
+- Indoor (small) pool, perfect for chill out. But probably more suitable...I have stayed here for around 6 months last year (Jan'11 - Jul'11) for a business purpose. From the beginning, I already love the place. Staffs has good service, and very friendly. The receptionists, Mr Abraham Varghese and Samantha are one of the best and always gave us warm greeting and such a hospitality that I will always felt this place as a home. There are also the manager lady, other receptionist lady, night receptionist guy, and the lady who always there preparing breakfast, sorry I forgot their names its been almost a year ago, but they're all be very friendly and hospitable. Always there to help you. Stayed here due to company training program and the place is just couple blocks away. From the day 1, I was issued Marriott Rewards card. When check out I got Platinum status \:D/. I have since using it for free nights on Marriott hotels around the world.Pros;- Room/suit is big. We stayed in a 1 bed room suite. Fridge is big, microwave and kitchenette stuff is complete. Dishwasher is there. Everything is almost perfect. 2 TVs, 1 in living room and 1 in bedroom. You got iron and table, decent bath room which hot water always working. They clean your room everyday.- Nice Patio off the lobby. Always came here with friends and have nice shisha time.- Indoor (small) pool, perfect for chill out. But probably more suitable for kids.- Big parking lot- Free transfer to Houston Int'l Airport- Wireless internet seems worked everywhere and of great quality.- Gym is small but OK- Eating places nearby is a lot: Popeyes &amp; McD is just one block away. You got church's chicken on your left and also some other places nearby.- near to Walmart, Fry's, Sport store (Academy), just 3-5 mins drive.- Free news paper USA today on the lobby.- Lobby is great- Minibar-like corner near 24 hr coffee tables at lobby is great.- 2 desktop PC with internet and laser printer. Convenient to get your stuff printed here (free!).- Free breakfast is OK. For 1-2 weeks, but if you stayed here for more than a month you might get bored. But it is liveable :D and free- There's storage room if you plan to go somewhere and come back later to hotel.Cons;- Near to greenspoint mall, they got some more food stall to choose from including chinese food. The mall. I've heard this area is fairly dangerous but as long as we kept vigilant and mindful of what we're doing, use common sense, is should be OK. It has police office at the mall and also some army/navy recruiting office so I felt a bit safe. I've never have any problem going to this mall, shoes is fairly cheap here and also came here for foods.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I have stayed here for around 6 months last year (Jan'11 - Jul'11) for a business purpose. From the beginning, I already love the place. Staffs has good service, and very friendly. The receptionists, Mr Abraham Varghese and Samantha are one of the best and always gave us warm greeting and such a hospitality that I will always felt this place as a home. There are also the manager lady, other receptionist lady, night receptionist guy, and the lady who always there preparing breakfast, sorry I forgot their names its been almost a year ago, but they're all be very friendly and hospitable. Always there to help you. 
+Stayed here due to company training program and the place is just couple blocks away. From the day 1, I was issued Marriott Rewards card. When check out I got Platinum status \:D/. I have since using it for free nights on Marriott hotels around the world.
+Pros;
+- Room/suit is big. We stayed in a 1 bed room suite. Fridge is big, microwave and kitchenette stuff is complete. Dishwasher is there. Everything is almost perfect. 2 TVs, 1 in living room and 1 in bedroom. You got iron and table, decent bath room which hot water always working. They clean your room everyday.
+- Nice Patio off the lobby. Always came here with friends and have nice shisha time.
+- Indoor (small) pool, perfect for chill out. But probably more suitable...I have stayed here for around 6 months last year (Jan'11 - Jul'11) for a business purpose. From the beginning, I already love the place. Staffs has good service, and very friendly. The receptionists, Mr Abraham Varghese and Samantha are one of the best and always gave us warm greeting and such a hospitality that I will always felt this place as a home. There are also the manager lady, other receptionist lady, night receptionist guy, and the lady who always there preparing breakfast, sorry I forgot their names its been almost a year ago, but they're all be very friendly and hospitable. Always there to help you. Stayed here due to company training program and the place is just couple blocks away. From the day 1, I was issued Marriott Rewards card. When check out I got Platinum status \:D/. I have since using it for free nights on Marriott hotels around the world.Pros;- Room/suit is big. We stayed in a 1 bed room suite. Fridge is big, microwave and kitchenette stuff is complete. Dishwasher is there. Everything is almost perfect. 2 TVs, 1 in living room and 1 in bedroom. You got iron and table, decent bath room which hot water always working. They clean your room everyday.- Nice Patio off the lobby. Always came here with friends and have nice shisha time.- Indoor (small) pool, perfect for chill out. But probably more suitable for kids.- Big parking lot- Free transfer to Houston Int'l Airport- Wireless internet seems worked everywhere and of great quality.- Gym is small but OK- Eating places nearby is a lot: Popeyes &amp; McD is just one block away. You got church's chicken on your left and also some other places nearby.- near to Walmart, Fry's, Sport store (Academy), just 3-5 mins drive.- Free news paper USA today on the lobby.- Lobby is great- Minibar-like corner near 24 hr coffee tables at lobby is great.- 2 desktop PC with internet and laser printer. Convenient to get your stuff printed here (free!).- Free breakfast is OK. For 1-2 weeks, but if you stayed here for more than a month you might get bored. But it is liveable :D and free- There's storage room if you plan to go somewhere and come back later to hotel.Cons;- Near to greenspoint mall, they got some more food stall to choose from including chinese food. The mall. I've heard this area is fairly dangerous but as long as we kept vigilant and mindful of what we're doing, use common sense, is should be OK. It has police office at the mall and also some army/navy recruiting office so I felt a bit safe. I've never have any problem going to this mall, shoes is fairly cheap here and also came here for foods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r121576955-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121576955</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>Pool is broken, poor service</t>
+  </si>
+  <si>
+    <t>Location is 15 minutes from the airport. It is right off the highway. East to find and easy to get to. Rooms were nice and clean. Pool is broken. Notice on the door said it would be fixed on a date that was already two days past. Sucked for us as we had kids that were hyped up about the indoor pool. No adjustment to the full rate I paid for the room via marriott.com. Staff told us to go to the pool next door. Yah right, in December you want to me place soggy, wet kids outside.Breakfast service had a waffle maker with no non-stick spray... disaster ensued... So the nice lady took the waffle maker away.... Sweet. I've been a big fan of Residence Inn, but this one's got me all bitter and sour. I should have gotten better for ~170 per night per room. When I go to Houston next month, I'll be avoiding this one at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Location is 15 minutes from the airport. It is right off the highway. East to find and easy to get to. Rooms were nice and clean. Pool is broken. Notice on the door said it would be fixed on a date that was already two days past. Sucked for us as we had kids that were hyped up about the indoor pool. No adjustment to the full rate I paid for the room via marriott.com. Staff told us to go to the pool next door. Yah right, in December you want to me place soggy, wet kids outside.Breakfast service had a waffle maker with no non-stick spray... disaster ensued... So the nice lady took the waffle maker away.... Sweet. I've been a big fan of Residence Inn, but this one's got me all bitter and sour. I should have gotten better for ~170 per night per room. When I go to Houston next month, I'll be avoiding this one at all costs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r116133820-Residence_Inn_Houston_North-Houston_Texas.html</t>
@@ -1468,6 +2230,52 @@
 Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.
 Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.
 Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But...Stayed here for 6 nights on a business trip.  Good price, very convenient location for me - I booked here because my training facility was 1 street down from the hotel, it is very close to the airport, I am a Marriott Rewards member, and I was given a discounted rate since the training facility has a deal with the hotel.Staff were very friendly, I had no problems checking in and out.Hotel room was much better than I expected, I had a suite, with full and functional kitchenette.  Lots of space, cleaned every day - it really was very nice.Hotel had many great services and facilities, unfortunately I did not get much chance to try out any - indoor pool and jacuzzi, grocery services, along with hospitality activities on evenings - they really try to make your stay as confortable and entertaining as possible.Wireless internet was fantastic - especially because it was free!  I had read a review before I booked of someone complaining that it never worked, and that the reception area provided no assistance to him.  Well, this is true - I could not connect either when I got there, and the reception personnel could not assist.  However, this isn't their issue to deal with, since the free internet service was not provided by the hotel itself, it was supplied by some outside organization - I'm not entirely sure how it worked exactly.  But nevertheless, there is a brochure card on the desk which advertises the free wireless, and on it, there is a number to call for assistance.  I called, explained the issue, and I was surfing within 5 minutes of placing the call.  Never got disconnected over the entire 7 days I was there.Lots of eating places nearby - fast food like Subway, McDonalds, Popeyes, Pizza Hut, Taco Bell, etc are all within a couple minutes drive.  There is a good sushi place called Ichibon, just about 3 minutes drive away, along the way to Greenspoint Mall (which is about 5 minutes drive away).  The Mall is not great for shopping, it's moreso good for quick food from the food court, and basics.The area is reported to be fairly dangerous (referred to as "Gunpoint" rather than "Greenspoint"), but as with anywhere in the world, so long as you are mindful about where you are and what you're doing, everything should be just fine.  Just don't go walking out in any dark lonely areas at 11 pm with bright gold jewellry from head to toe - all it really is about is just using some common sense.  I didn't have any problems while there, and never felt unsafe.It is some distance away from Downtown, and the bigger shopping and entertainment areas in Houston, so I would not advise the location to anyone who intends to be partying up a storm.  However, if you need somewhere to rest your head and take a shower, which is close to the airport, has everything you need within a few minutes drive (dining, WalMart, etc), and don't really care to be out all night living it up, then this is a great option.  If I return to Houston to recertify my training again in 2 years, I will be staying at this hotel again without a doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r19744501-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19744501</t>
+  </si>
+  <si>
+    <t>09/04/2008</t>
+  </si>
+  <si>
+    <t>Very nice at a reasonable price</t>
+  </si>
+  <si>
+    <t>The 2 bedroom suite was a great arrangement for our family of 4. With rooms separated by the living room/kitchen the kids could stay up late watching television without disturbing us. The rooms were well-appointed, and clean. Breakfast was great - daily selection of eggs, sausage, potatoes, french toast, waffles, cold cereal, fresh fruit, yogurt, coffees, juices, milk, etc. Staff was friendly and responsive. Location close to the airport and expressways was ideal for getting around.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r13656600-Residence_Inn_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13656600</t>
+  </si>
+  <si>
+    <t>02/18/2008</t>
+  </si>
+  <si>
+    <t>Good location, comfortable and good service</t>
+  </si>
+  <si>
+    <t>Good location - half way between Greenspoint and Intercontinental Airport.  Ideal for both, and also near the top of the Hardy Toll Road which made it easy to go downtown in the evenings.
+Staff on the reception desk was friendly and helpful at all times, and breakfast was well-stocked and served in clean and comfortable surroundings.
+My room was very comfortable, with quiet air-conditioning and comfortable areas to work and rest.  TV was somewhat "old style" with interference patterns on all the channels, but sound was OK.  Wireless Internet worked efficiently and at high-speed over the week I was there, with the exception of 30 minutes when it was down for "maintenance" (at 5pm on a weekday?).
+Laundry worked well and didn't have to wait for machines either time I used it.
+Service felt like it was a bit above average for this kind of hotel.  There was a card in the room where you could order groceries for the staff to go shopping and get what you wanted at cost.  I did my own shopping at a grocery store in Greenspoint, which wasn't the most pleasant experience ever, so I can understand why that service would be useful.  There always seemed to be some kind of food in reception in the evenings - if you ate a big meal at lunchtime, that would probably be enough to see you through the evening.
+I don't normally stay in this area,...Good location - half way between Greenspoint and Intercontinental Airport.  Ideal for both, and also near the top of the Hardy Toll Road which made it easy to go downtown in the evenings.Staff on the reception desk was friendly and helpful at all times, and breakfast was well-stocked and served in clean and comfortable surroundings.My room was very comfortable, with quiet air-conditioning and comfortable areas to work and rest.  TV was somewhat "old style" with interference patterns on all the channels, but sound was OK.  Wireless Internet worked efficiently and at high-speed over the week I was there, with the exception of 30 minutes when it was down for "maintenance" (at 5pm on a weekday?).Laundry worked well and didn't have to wait for machines either time I used it.Service felt like it was a bit above average for this kind of hotel.  There was a card in the room where you could order groceries for the staff to go shopping and get what you wanted at cost.  I did my own shopping at a grocery store in Greenspoint, which wasn't the most pleasant experience ever, so I can understand why that service would be useful.  There always seemed to be some kind of food in reception in the evenings - if you ate a big meal at lunchtime, that would probably be enough to see you through the evening.I don't normally stay in this area, but was working with a customer at Greenspoint for a week, so I was glad to cut down on the commute time.  If I was working in the same area again, I would definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Good location - half way between Greenspoint and Intercontinental Airport.  Ideal for both, and also near the top of the Hardy Toll Road which made it easy to go downtown in the evenings.
+Staff on the reception desk was friendly and helpful at all times, and breakfast was well-stocked and served in clean and comfortable surroundings.
+My room was very comfortable, with quiet air-conditioning and comfortable areas to work and rest.  TV was somewhat "old style" with interference patterns on all the channels, but sound was OK.  Wireless Internet worked efficiently and at high-speed over the week I was there, with the exception of 30 minutes when it was down for "maintenance" (at 5pm on a weekday?).
+Laundry worked well and didn't have to wait for machines either time I used it.
+Service felt like it was a bit above average for this kind of hotel.  There was a card in the room where you could order groceries for the staff to go shopping and get what you wanted at cost.  I did my own shopping at a grocery store in Greenspoint, which wasn't the most pleasant experience ever, so I can understand why that service would be useful.  There always seemed to be some kind of food in reception in the evenings - if you ate a big meal at lunchtime, that would probably be enough to see you through the evening.
+I don't normally stay in this area,...Good location - half way between Greenspoint and Intercontinental Airport.  Ideal for both, and also near the top of the Hardy Toll Road which made it easy to go downtown in the evenings.Staff on the reception desk was friendly and helpful at all times, and breakfast was well-stocked and served in clean and comfortable surroundings.My room was very comfortable, with quiet air-conditioning and comfortable areas to work and rest.  TV was somewhat "old style" with interference patterns on all the channels, but sound was OK.  Wireless Internet worked efficiently and at high-speed over the week I was there, with the exception of 30 minutes when it was down for "maintenance" (at 5pm on a weekday?).Laundry worked well and didn't have to wait for machines either time I used it.Service felt like it was a bit above average for this kind of hotel.  There was a card in the room where you could order groceries for the staff to go shopping and get what you wanted at cost.  I did my own shopping at a grocery store in Greenspoint, which wasn't the most pleasant experience ever, so I can understand why that service would be useful.  There always seemed to be some kind of food in reception in the evenings - if you ate a big meal at lunchtime, that would probably be enough to see you through the evening.I don't normally stay in this area, but was working with a customer at Greenspoint for a week, so I was glad to cut down on the commute time.  If I was working in the same area again, I would definitely come back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223176-r6154221-Residence_Inn_Houston_North-Houston_Texas.html</t>
@@ -2059,7 +2867,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2067,29 +2875,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2105,58 +2903,52 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
         <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2172,52 +2964,58 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -2233,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2242,10 +3040,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2254,35 +3052,37 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2298,34 +3098,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2337,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2359,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2368,25 +3168,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2398,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2420,7 +3220,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2429,47 +3229,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X8" t="s">
-        <v>102</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2485,7 +3277,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2494,43 +3286,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2546,7 +3342,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2555,49 +3351,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -2613,7 +3403,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2622,49 +3412,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2680,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2689,43 +3473,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2741,7 +3531,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2750,22 +3540,26 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2776,13 +3570,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2798,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2807,43 +3601,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2859,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2868,22 +3666,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -2898,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2920,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2929,49 +3727,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -2987,7 +3785,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2996,25 +3794,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3026,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -3048,7 +3846,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3057,43 +3855,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -3109,7 +3913,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3118,43 +3922,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3170,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3179,25 +3989,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3209,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
@@ -3231,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3240,26 +4050,22 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>204</v>
-      </c>
-      <c r="O21" t="s">
-        <v>74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -3270,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -3292,7 +4098,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3301,49 +4107,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -3359,7 +4159,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3368,47 +4168,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="X23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
@@ -3424,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3433,49 +4229,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -3491,7 +4281,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3500,47 +4290,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
@@ -3556,7 +4342,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3565,49 +4351,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -3623,7 +4409,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3632,34 +4418,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3668,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -3690,7 +4476,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3699,49 +4485,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>169</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -3757,7 +4537,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3766,45 +4546,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -3820,7 +4598,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3829,45 +4607,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
@@ -3883,7 +4659,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3892,49 +4668,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
@@ -3950,7 +4720,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3959,49 +4729,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>169</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -4017,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4026,34 +4790,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>4</v>
@@ -4062,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
@@ -4084,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4093,49 +4855,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
@@ -4151,7 +4907,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4160,49 +4916,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
@@ -4218,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4227,34 +4977,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4263,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="X36" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
@@ -4285,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4294,43 +5044,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
@@ -4346,7 +5100,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4355,25 +5109,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4385,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -4407,7 +5161,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4416,39 +5170,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="X39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
@@ -4464,7 +5226,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4473,28 +5235,30 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
@@ -4507,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="X40" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
@@ -4529,7 +5293,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4538,53 +5302,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
@@ -4600,62 +5358,52 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s">
+        <v>368</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
         <v>370</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="Y42" t="s">
         <v>371</v>
-      </c>
-      <c r="J42" t="s">
-        <v>372</v>
-      </c>
-      <c r="K42" t="s">
-        <v>373</v>
-      </c>
-      <c r="L42" t="s">
-        <v>374</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>366</v>
-      </c>
-      <c r="O42" t="s">
-        <v>205</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
-      <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>375</v>
-      </c>
-      <c r="X42" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="43">
@@ -4671,7 +5419,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4680,53 +5428,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="X43" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44">
@@ -4742,7 +5486,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4751,37 +5495,33 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4791,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
@@ -4813,7 +5553,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4822,25 +5562,25 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="O45" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4848,12 +5588,8 @@
       <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4861,10 +5597,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
       <c r="Y45" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
@@ -4880,7 +5620,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4889,38 +5629,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4929,13 +5665,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="X46" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
@@ -4951,62 +5687,54 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>410</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>411</v>
-      </c>
-      <c r="J47" t="s">
-        <v>412</v>
-      </c>
-      <c r="K47" t="s">
-        <v>413</v>
-      </c>
-      <c r="L47" t="s">
-        <v>414</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>415</v>
-      </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>416</v>
-      </c>
-      <c r="X47" t="s">
-        <v>417</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
@@ -5022,7 +5750,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5031,34 +5759,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
         <v>4</v>
       </c>
       <c r="R48" t="n">
         <v>3</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5069,7 +5797,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
@@ -5085,7 +5813,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5094,41 +5822,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J49" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K49" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
         <v>3</v>
-      </c>
-      <c r="N49" t="s">
-        <v>429</v>
-      </c>
-      <c r="O49" t="s">
-        <v>74</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
       </c>
       <c r="R49" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5136,7 +5860,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
@@ -5152,7 +5876,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5161,41 +5885,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J50" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K50" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
         <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5203,7 +5923,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51">
@@ -5219,7 +5939,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5228,49 +5948,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
       <c r="Y51" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
@@ -5286,7 +6006,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5295,33 +6015,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="O52" t="s">
-        <v>169</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5329,7 +6051,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53">
@@ -5345,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5354,45 +6076,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>450</v>
+      </c>
+      <c r="X53" t="s">
+        <v>451</v>
+      </c>
       <c r="Y53" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
@@ -5408,56 +6134,56 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>455</v>
+      </c>
+      <c r="K54" t="s">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s">
         <v>457</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
         <v>458</v>
       </c>
-      <c r="J54" t="s">
-        <v>459</v>
-      </c>
-      <c r="K54" t="s">
-        <v>460</v>
-      </c>
-      <c r="L54" t="s">
-        <v>461</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>462</v>
-      </c>
       <c r="O54" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>459</v>
+      </c>
+      <c r="X54" t="s">
+        <v>460</v>
+      </c>
       <c r="Y54" t="s">
         <v>461</v>
       </c>
@@ -5475,58 +6201,58 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
         <v>463</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>464</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>465</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>466</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
         <v>467</v>
       </c>
-      <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>468</v>
-      </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
         <v>5</v>
       </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>459</v>
+      </c>
+      <c r="X55" t="s">
+        <v>460</v>
+      </c>
       <c r="Y55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56">
@@ -5542,44 +6268,58 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
         <v>470</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>471</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>472</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>473</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
         <v>474</v>
       </c>
-      <c r="M56" t="n">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
       <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>475</v>
+      </c>
+      <c r="X56" t="s">
+        <v>476</v>
+      </c>
       <c r="Y56" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
@@ -5595,7 +6335,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5604,41 +6344,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>475</v>
+      </c>
+      <c r="X57" t="s">
+        <v>476</v>
+      </c>
       <c r="Y57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
@@ -5654,7 +6402,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5663,35 +6411,2537 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J58" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>489</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
       <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>475</v>
+      </c>
+      <c r="X58" t="s">
+        <v>476</v>
+      </c>
       <c r="Y58" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>493</v>
+      </c>
+      <c r="K59" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>496</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>497</v>
+      </c>
+      <c r="X59" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>500</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>501</v>
+      </c>
+      <c r="J60" t="s">
+        <v>502</v>
+      </c>
+      <c r="K60" t="s">
+        <v>503</v>
+      </c>
+      <c r="L60" t="s">
+        <v>504</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>489</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>497</v>
+      </c>
+      <c r="X60" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>506</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>507</v>
+      </c>
+      <c r="J61" t="s">
+        <v>508</v>
+      </c>
+      <c r="K61" t="s">
+        <v>509</v>
+      </c>
+      <c r="L61" t="s">
+        <v>510</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>489</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>497</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>512</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>513</v>
+      </c>
+      <c r="J62" t="s">
+        <v>514</v>
+      </c>
+      <c r="K62" t="s">
+        <v>515</v>
+      </c>
+      <c r="L62" t="s">
+        <v>516</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>518</v>
+      </c>
+      <c r="X62" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>521</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" t="s">
+        <v>523</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>517</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>518</v>
+      </c>
+      <c r="X63" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>528</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
+      </c>
+      <c r="K64" t="s">
+        <v>530</v>
+      </c>
+      <c r="L64" t="s">
+        <v>531</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>496</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>518</v>
+      </c>
+      <c r="X64" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>534</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="K65" t="s">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s">
+        <v>543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>496</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>518</v>
+      </c>
+      <c r="X66" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>546</v>
+      </c>
+      <c r="J67" t="s">
+        <v>547</v>
+      </c>
+      <c r="K67" t="s">
+        <v>548</v>
+      </c>
+      <c r="L67" t="s">
+        <v>549</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>467</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>518</v>
+      </c>
+      <c r="X67" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>552</v>
+      </c>
+      <c r="J68" t="s">
+        <v>553</v>
+      </c>
+      <c r="K68" t="s">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>556</v>
+      </c>
+      <c r="O68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>557</v>
+      </c>
+      <c r="X68" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>557</v>
+      </c>
+      <c r="X69" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>567</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>568</v>
+      </c>
+      <c r="J70" t="s">
+        <v>569</v>
+      </c>
+      <c r="K70" t="s">
+        <v>570</v>
+      </c>
+      <c r="L70" t="s">
+        <v>571</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>565</v>
+      </c>
+      <c r="O70" t="s">
+        <v>304</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>572</v>
+      </c>
+      <c r="X70" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>576</v>
+      </c>
+      <c r="J71" t="s">
+        <v>577</v>
+      </c>
+      <c r="K71" t="s">
+        <v>578</v>
+      </c>
+      <c r="L71" t="s">
+        <v>579</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>580</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>581</v>
+      </c>
+      <c r="X71" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>584</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>585</v>
+      </c>
+      <c r="J72" t="s">
+        <v>586</v>
+      </c>
+      <c r="K72" t="s">
+        <v>587</v>
+      </c>
+      <c r="L72" t="s">
+        <v>588</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>589</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>591</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>592</v>
+      </c>
+      <c r="J73" t="s">
+        <v>593</v>
+      </c>
+      <c r="K73" t="s">
+        <v>594</v>
+      </c>
+      <c r="L73" t="s">
+        <v>595</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>596</v>
+      </c>
+      <c r="O73" t="s">
+        <v>91</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>557</v>
+      </c>
+      <c r="X73" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>598</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>599</v>
+      </c>
+      <c r="J74" t="s">
+        <v>600</v>
+      </c>
+      <c r="K74" t="s">
+        <v>601</v>
+      </c>
+      <c r="L74" t="s">
+        <v>602</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>603</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>604</v>
+      </c>
+      <c r="X74" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>607</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>608</v>
+      </c>
+      <c r="J75" t="s">
+        <v>609</v>
+      </c>
+      <c r="K75" t="s">
+        <v>610</v>
+      </c>
+      <c r="L75" t="s">
+        <v>611</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>612</v>
+      </c>
+      <c r="O75" t="s">
+        <v>91</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>613</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>614</v>
+      </c>
+      <c r="J76" t="s">
+        <v>615</v>
+      </c>
+      <c r="K76" t="s">
+        <v>548</v>
+      </c>
+      <c r="L76" t="s">
+        <v>616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>612</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>617</v>
+      </c>
+      <c r="X76" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>620</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>621</v>
+      </c>
+      <c r="J77" t="s">
+        <v>622</v>
+      </c>
+      <c r="K77" t="s">
+        <v>623</v>
+      </c>
+      <c r="L77" t="s">
+        <v>624</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>625</v>
+      </c>
+      <c r="O77" t="s">
+        <v>304</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>626</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>627</v>
+      </c>
+      <c r="J78" t="s">
+        <v>628</v>
+      </c>
+      <c r="K78" t="s">
+        <v>629</v>
+      </c>
+      <c r="L78" t="s">
+        <v>630</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>625</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>632</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>633</v>
+      </c>
+      <c r="J79" t="s">
+        <v>634</v>
+      </c>
+      <c r="K79" t="s">
+        <v>635</v>
+      </c>
+      <c r="L79" t="s">
+        <v>636</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>637</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>638</v>
+      </c>
+      <c r="X79" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>646</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>647</v>
+      </c>
+      <c r="J81" t="s">
+        <v>648</v>
+      </c>
+      <c r="K81" t="s">
+        <v>649</v>
+      </c>
+      <c r="L81" t="s">
+        <v>650</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>651</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>653</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>654</v>
+      </c>
+      <c r="J82" t="s">
+        <v>655</v>
+      </c>
+      <c r="K82" t="s">
+        <v>656</v>
+      </c>
+      <c r="L82" t="s">
+        <v>657</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>651</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>659</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>660</v>
+      </c>
+      <c r="J83" t="s">
+        <v>661</v>
+      </c>
+      <c r="K83" t="s">
+        <v>662</v>
+      </c>
+      <c r="L83" t="s">
+        <v>663</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>651</v>
+      </c>
+      <c r="O83" t="s">
+        <v>107</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>665</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>666</v>
+      </c>
+      <c r="J84" t="s">
+        <v>667</v>
+      </c>
+      <c r="K84" t="s">
+        <v>668</v>
+      </c>
+      <c r="L84" t="s">
+        <v>669</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>670</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>672</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>673</v>
+      </c>
+      <c r="J85" t="s">
+        <v>674</v>
+      </c>
+      <c r="K85" t="s">
+        <v>675</v>
+      </c>
+      <c r="L85" t="s">
+        <v>676</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>677</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" t="s">
+        <v>681</v>
+      </c>
+      <c r="L86" t="s">
+        <v>682</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>683</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>684</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>685</v>
+      </c>
+      <c r="J87" t="s">
+        <v>686</v>
+      </c>
+      <c r="K87" t="s">
+        <v>687</v>
+      </c>
+      <c r="L87" t="s">
+        <v>688</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>689</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>692</v>
+      </c>
+      <c r="J88" t="s">
+        <v>693</v>
+      </c>
+      <c r="K88" t="s">
+        <v>694</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>696</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>699</v>
+      </c>
+      <c r="J89" t="s">
+        <v>700</v>
+      </c>
+      <c r="K89" t="s">
+        <v>701</v>
+      </c>
+      <c r="L89" t="s">
+        <v>702</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>703</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>705</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>706</v>
+      </c>
+      <c r="J90" t="s">
+        <v>707</v>
+      </c>
+      <c r="K90" t="s">
+        <v>708</v>
+      </c>
+      <c r="L90" t="s">
+        <v>709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>710</v>
+      </c>
+      <c r="O90" t="s">
+        <v>304</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>711</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>712</v>
+      </c>
+      <c r="J91" t="s">
+        <v>713</v>
+      </c>
+      <c r="K91" t="s">
+        <v>714</v>
+      </c>
+      <c r="L91" t="s">
+        <v>715</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>716</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>718</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>719</v>
+      </c>
+      <c r="J92" t="s">
+        <v>720</v>
+      </c>
+      <c r="K92" t="s">
+        <v>721</v>
+      </c>
+      <c r="L92" t="s">
+        <v>722</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>716</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>723</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>724</v>
+      </c>
+      <c r="J93" t="s">
+        <v>725</v>
+      </c>
+      <c r="K93" t="s">
+        <v>726</v>
+      </c>
+      <c r="L93" t="s">
+        <v>727</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>728</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>730</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>731</v>
+      </c>
+      <c r="J94" t="s">
+        <v>732</v>
+      </c>
+      <c r="K94" t="s">
+        <v>733</v>
+      </c>
+      <c r="L94" t="s">
+        <v>734</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>736</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>737</v>
+      </c>
+      <c r="J95" t="s">
+        <v>738</v>
+      </c>
+      <c r="K95" t="s">
+        <v>739</v>
+      </c>
+      <c r="L95" t="s">
+        <v>740</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>741</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42203</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>743</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>744</v>
+      </c>
+      <c r="J96" t="s">
+        <v>745</v>
+      </c>
+      <c r="K96" t="s">
+        <v>746</v>
+      </c>
+      <c r="L96" t="s">
+        <v>747</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
